--- a/Movie_Data_Starter_Project.xlsx
+++ b/Movie_Data_Starter_Project.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Projects\Data_Analysis_Portfolio\working_with_pivot_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61F5240-81AE-4220-BA59-983E42628E40}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48AED56-A096-4BBB-861A-FC5463176592}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6536" uniqueCount="2849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6537" uniqueCount="2850">
   <si>
     <t>Movie Title</t>
   </si>
@@ -8574,6 +8574,9 @@
   </si>
   <si>
     <t>2016</t>
+  </si>
+  <si>
+    <t>Average of Box Office Revenue ($)2</t>
   </si>
 </sst>
 </file>
@@ -8688,7 +8691,13 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
@@ -17286,7 +17295,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5643AB21-A11F-411C-BD6E-BF9D63A697E5}" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A3:C9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" numFmtId="164" showAll="0">
@@ -17369,14 +17378,23 @@
       <x/>
     </i>
   </rowItems>
-  <colItems count="1">
-    <i/>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
   </colItems>
-  <dataFields count="1">
+  <dataFields count="2">
     <dataField name="Sum of Box Office Revenue ($)" fld="13" baseField="0" baseItem="0" numFmtId="44"/>
+    <dataField name="Average of Box Office Revenue ($)2" fld="13" subtotal="average" baseField="15" baseItem="2"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="4">
+    <format dxfId="6">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -17689,76 +17707,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3440AAC9-58BB-477C-9CF6-706878CD55F6}">
-  <dimension ref="A3:B9"/>
+  <dimension ref="A3:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>2841</v>
       </c>
       <c r="B3" t="s">
         <v>2843</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
         <v>2844</v>
       </c>
       <c r="B4" s="23">
         <v>18078040000</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" s="23">
+        <v>170547547.16981131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
         <v>2845</v>
       </c>
       <c r="B5" s="23">
         <v>13672800000</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" s="23">
+        <v>160856470.58823529</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
         <v>2846</v>
       </c>
       <c r="B6" s="23">
         <v>20013420000</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" s="23">
+        <v>168180000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
         <v>2847</v>
       </c>
       <c r="B7" s="23">
         <v>13521310000</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" s="23">
+        <v>109042822.58064516</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
         <v>2848</v>
       </c>
       <c r="B8" s="23">
         <v>11921900000</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" s="23">
+        <v>161106756.75675675</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
         <v>2842</v>
       </c>
       <c r="B9" s="23">
         <v>77207470000</v>
       </c>
+      <c r="C9" s="23">
+        <v>151983208.66141734</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Movie_Data_Starter_Project.xlsx
+++ b/Movie_Data_Starter_Project.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Projects\Data_Analysis_Portfolio\working_with_pivot_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48AED56-A096-4BBB-861A-FC5463176592}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5052973F-926B-40C5-8BC3-53FD7B261939}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6537" uniqueCount="2850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6538" uniqueCount="2851">
   <si>
     <t>Movie Title</t>
   </si>
@@ -8577,6 +8577,9 @@
   </si>
   <si>
     <t>Average of Box Office Revenue ($)2</t>
+  </si>
+  <si>
+    <t>Count of Box Office Revenue ($)2</t>
   </si>
 </sst>
 </file>
@@ -8691,7 +8694,13 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="9">
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
@@ -17295,7 +17304,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5643AB21-A11F-411C-BD6E-BF9D63A697E5}" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:C9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A3:D9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" numFmtId="164" showAll="0">
@@ -17381,20 +17390,24 @@
   <colFields count="1">
     <field x="-2"/>
   </colFields>
-  <colItems count="2">
+  <colItems count="3">
     <i>
       <x/>
     </i>
     <i i="1">
       <x v="1"/>
     </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
   </colItems>
-  <dataFields count="2">
+  <dataFields count="3">
     <dataField name="Sum of Box Office Revenue ($)" fld="13" baseField="0" baseItem="0" numFmtId="44"/>
     <dataField name="Average of Box Office Revenue ($)2" fld="13" subtotal="average" baseField="15" baseItem="2"/>
+    <dataField name="Count of Box Office Revenue ($)2" fld="13" subtotal="count" baseField="15" baseItem="2"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="6">
+    <format dxfId="8">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -17707,10 +17720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3440AAC9-58BB-477C-9CF6-706878CD55F6}">
-  <dimension ref="A3:C9"/>
+  <dimension ref="A3:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17718,9 +17731,10 @@
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>2841</v>
       </c>
@@ -17730,8 +17744,11 @@
       <c r="C3" t="s">
         <v>2849</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
         <v>2844</v>
       </c>
@@ -17741,8 +17758,11 @@
       <c r="C4" s="23">
         <v>170547547.16981131</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" s="23">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
         <v>2845</v>
       </c>
@@ -17752,8 +17772,11 @@
       <c r="C5" s="23">
         <v>160856470.58823529</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" s="23">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
         <v>2846</v>
       </c>
@@ -17763,8 +17786,11 @@
       <c r="C6" s="23">
         <v>168180000</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" s="23">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
         <v>2847</v>
       </c>
@@ -17774,8 +17800,11 @@
       <c r="C7" s="23">
         <v>109042822.58064516</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" s="23">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
         <v>2848</v>
       </c>
@@ -17785,8 +17814,11 @@
       <c r="C8" s="23">
         <v>161106756.75675675</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" s="23">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
         <v>2842</v>
       </c>
@@ -17795,6 +17827,9 @@
       </c>
       <c r="C9" s="23">
         <v>151983208.66141734</v>
+      </c>
+      <c r="D9" s="23">
+        <v>508</v>
       </c>
     </row>
   </sheetData>

--- a/Movie_Data_Starter_Project.xlsx
+++ b/Movie_Data_Starter_Project.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Projects\Data_Analysis_Portfolio\working_with_pivot_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5052973F-926B-40C5-8BC3-53FD7B261939}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D21F77D-E566-45B2-B572-CB17E3351DA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6538" uniqueCount="2851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6548" uniqueCount="2854">
   <si>
     <t>Movie Title</t>
   </si>
@@ -8580,6 +8580,15 @@
   </si>
   <si>
     <t>Count of Box Office Revenue ($)2</t>
+  </si>
+  <si>
+    <t>Sum &lt; $10M</t>
+  </si>
+  <si>
+    <t>Average &lt; $10M</t>
+  </si>
+  <si>
+    <t>Count &lt; $10M</t>
   </si>
 </sst>
 </file>
@@ -8694,7 +8703,19 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="13">
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
@@ -17303,6 +17324,127 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{288B307E-74DC-482B-B13D-CC9059B04DF0}" name="PivotTable4" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A13:D19" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" numFmtId="164" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="15"/>
+    <field x="14"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Sum &lt; $10M" fld="13" baseField="0" baseItem="0" numFmtId="44"/>
+    <dataField name="Average &lt; $10M" fld="13" subtotal="average" baseField="15" baseItem="2"/>
+    <dataField name="Count &lt; $10M" fld="13" subtotal="count" baseField="15" baseItem="2"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="3">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5643AB21-A11F-411C-BD6E-BF9D63A697E5}" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
@@ -17407,7 +17549,7 @@
     <dataField name="Count of Box Office Revenue ($)2" fld="13" subtotal="count" baseField="15" baseItem="2"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="8">
+    <format dxfId="12">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -17720,10 +17862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3440AAC9-58BB-477C-9CF6-706878CD55F6}">
-  <dimension ref="A3:D9"/>
+  <dimension ref="A3:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17832,9 +17974,107 @@
         <v>508</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
+        <v>2841</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>2851</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>2852</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>2853</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="22" t="s">
+        <v>2844</v>
+      </c>
+      <c r="B14" s="23">
+        <v>18078040000</v>
+      </c>
+      <c r="C14" s="23">
+        <v>170547547.16981131</v>
+      </c>
+      <c r="D14" s="23">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="22" t="s">
+        <v>2845</v>
+      </c>
+      <c r="B15" s="23">
+        <v>13672800000</v>
+      </c>
+      <c r="C15" s="23">
+        <v>160856470.58823529</v>
+      </c>
+      <c r="D15" s="23">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="22" t="s">
+        <v>2846</v>
+      </c>
+      <c r="B16" s="23">
+        <v>20013420000</v>
+      </c>
+      <c r="C16" s="23">
+        <v>168180000</v>
+      </c>
+      <c r="D16" s="23">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="22" t="s">
+        <v>2847</v>
+      </c>
+      <c r="B17" s="23">
+        <v>13521310000</v>
+      </c>
+      <c r="C17" s="23">
+        <v>109042822.58064516</v>
+      </c>
+      <c r="D17" s="23">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="22" t="s">
+        <v>2848</v>
+      </c>
+      <c r="B18" s="23">
+        <v>11921900000</v>
+      </c>
+      <c r="C18" s="23">
+        <v>161106756.75675675</v>
+      </c>
+      <c r="D18" s="23">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="22" t="s">
+        <v>2842</v>
+      </c>
+      <c r="B19" s="23">
+        <v>77207470000</v>
+      </c>
+      <c r="C19" s="23">
+        <v>151983208.66141734</v>
+      </c>
+      <c r="D19" s="23">
+        <v>508</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/Movie_Data_Starter_Project.xlsx
+++ b/Movie_Data_Starter_Project.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Projects\Data_Analysis_Portfolio\working_with_pivot_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D21F77D-E566-45B2-B572-CB17E3351DA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D1A434-AB5A-44F8-9CCB-D2943C80BB91}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,13 +21,13 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId6"/>
+    <pivotCache cacheId="5" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6548" uniqueCount="2854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6550" uniqueCount="2855">
   <si>
     <t>Movie Title</t>
   </si>
@@ -8589,6 +8589,9 @@
   </si>
   <si>
     <t>Count &lt; $10M</t>
+  </si>
+  <si>
+    <t>(Multiple Items)</t>
   </si>
 </sst>
 </file>
@@ -8703,7 +8706,13 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="15">
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
@@ -9152,7 +9161,455 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1000000" maxValue="250000000"/>
     </cacheField>
     <cacheField name="Box Office Revenue ($)" numFmtId="165">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1000000" maxValue="970800000"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1000000" maxValue="970800000" count="447">
+        <n v="108300000"/>
+        <n v="69400000"/>
+        <n v="131900000"/>
+        <n v="201500000"/>
+        <n v="331300000"/>
+        <n v="337600000"/>
+        <n v="97500000"/>
+        <n v="2900000"/>
+        <n v="4800000"/>
+        <n v="304700000"/>
+        <n v="60100000"/>
+        <n v="24000000"/>
+        <n v="7100000"/>
+        <n v="12000000"/>
+        <n v="36200000"/>
+        <n v="22000000"/>
+        <n v="58800000"/>
+        <n v="36000000"/>
+        <n v="116400000"/>
+        <n v="243800000"/>
+        <n v="1000000"/>
+        <n v="34600000"/>
+        <n v="26300000"/>
+        <n v="234800000"/>
+        <n v="235000000"/>
+        <n v="547400000"/>
+        <n v="27100000"/>
+        <n v="256899999.99999997"/>
+        <n v="133800000.00000001"/>
+        <n v="519400000"/>
+        <n v="232300000"/>
+        <n v="5000000"/>
+        <n v="124200000"/>
+        <n v="55000000"/>
+        <n v="872700000"/>
+        <n v="4400000"/>
+        <n v="16500000"/>
+        <n v="303000000"/>
+        <n v="21900000"/>
+        <n v="15100000"/>
+        <n v="41400000"/>
+        <n v="14600000"/>
+        <n v="29300000"/>
+        <n v="99800000"/>
+        <n v="19700000"/>
+        <n v="128000000"/>
+        <n v="44500000"/>
+        <n v="69000000"/>
+        <n v="165500000"/>
+        <n v="62100000"/>
+        <n v="36600000"/>
+        <n v="3300000"/>
+        <n v="714400000"/>
+        <n v="2800000"/>
+        <n v="40300000"/>
+        <n v="212200000"/>
+        <n v="6700000"/>
+        <n v="102100000"/>
+        <n v="8300000.0000000009"/>
+        <n v="46000000"/>
+        <n v="37200000"/>
+        <n v="13000000"/>
+        <n v="126600000"/>
+        <n v="130500000"/>
+        <n v="274300000"/>
+        <n v="50300000"/>
+        <n v="173600000"/>
+        <n v="35600000"/>
+        <n v="74700000"/>
+        <n v="240400000"/>
+        <n v="8199999.9999999991"/>
+        <n v="245500000"/>
+        <n v="26400000"/>
+        <n v="710600000"/>
+        <n v="18100000"/>
+        <n v="782600000"/>
+        <n v="6500000"/>
+        <n v="87900000"/>
+        <n v="970800000"/>
+        <n v="36900000"/>
+        <n v="77100000"/>
+        <n v="288900000"/>
+        <n v="425400000"/>
+        <n v="57800000"/>
+        <n v="28300000"/>
+        <n v="348800000"/>
+        <n v="217100000"/>
+        <n v="29500000"/>
+        <n v="120000000"/>
+        <n v="169800000"/>
+        <n v="45300000"/>
+        <n v="46200000"/>
+        <n v="370500000"/>
+        <n v="286100000"/>
+        <n v="48100000"/>
+        <n v="25300000"/>
+        <n v="49300000"/>
+        <n v="268399999.99999997"/>
+        <n v="74600000"/>
+        <n v="32799999.999999996"/>
+        <n v="168000000"/>
+        <n v="788700000"/>
+        <n v="161800000"/>
+        <n v="31700000"/>
+        <n v="11300000"/>
+        <n v="21200000"/>
+        <n v="12200000"/>
+        <n v="11400000"/>
+        <n v="211800000"/>
+        <n v="375700000"/>
+        <n v="105200000"/>
+        <n v="111800000"/>
+        <n v="33400000"/>
+        <n v="11800000"/>
+        <n v="132600000"/>
+        <n v="217500000"/>
+        <n v="62600000"/>
+        <n v="23500000"/>
+        <n v="145700000"/>
+        <n v="529000000"/>
+        <n v="369300000"/>
+        <n v="150200000"/>
+        <n v="247000000"/>
+        <n v="1700000"/>
+        <n v="226300000"/>
+        <n v="101300000"/>
+        <n v="73100000"/>
+        <n v="14500000"/>
+        <n v="82300000"/>
+        <n v="386000000"/>
+        <n v="114300000"/>
+        <n v="107700000"/>
+        <n v="51700000"/>
+        <n v="358400000"/>
+        <n v="473000000"/>
+        <n v="621500000"/>
+        <n v="65000000"/>
+        <n v="2600000"/>
+        <n v="368300000"/>
+        <n v="877000000"/>
+        <n v="174000000"/>
+        <n v="78900000"/>
+        <n v="93900000"/>
+        <n v="382300000"/>
+        <n v="161900000"/>
+        <n v="113000000"/>
+        <n v="675100000"/>
+        <n v="161700000"/>
+        <n v="8100000"/>
+        <n v="27400000"/>
+        <n v="218300000"/>
+        <n v="135500000"/>
+        <n v="3000000"/>
+        <n v="347900000"/>
+        <n v="7500000"/>
+        <n v="2300000"/>
+        <n v="67700000"/>
+        <n v="35900000"/>
+        <n v="86000000"/>
+        <n v="335300000"/>
+        <n v="101100000"/>
+        <n v="20700000"/>
+        <n v="2500000"/>
+        <n v="37900000"/>
+        <n v="414400000"/>
+        <n v="61500000"/>
+        <n v="27600000"/>
+        <n v="519900000"/>
+        <n v="1600000"/>
+        <n v="441800000"/>
+        <n v="138200000"/>
+        <n v="609000000"/>
+        <n v="125900000"/>
+        <n v="275300000"/>
+        <n v="17500000"/>
+        <n v="32200000.000000004"/>
+        <n v="195700000"/>
+        <n v="176500000"/>
+        <n v="41100000"/>
+        <n v="463400000"/>
+        <n v="378400000"/>
+        <n v="746900000"/>
+        <n v="51000000"/>
+        <n v="146400000"/>
+        <n v="668000000"/>
+        <n v="44000000"/>
+        <n v="312300000"/>
+        <n v="9100000"/>
+        <n v="196200000"/>
+        <n v="624000000"/>
+        <n v="6200000"/>
+        <n v="73600000"/>
+        <n v="183000000"/>
+        <n v="682300000"/>
+        <n v="10500000"/>
+        <n v="93100000"/>
+        <n v="385200000"/>
+        <n v="68300000"/>
+        <n v="47000000"/>
+        <n v="43800000"/>
+        <n v="275700000"/>
+        <n v="32600000"/>
+        <n v="4900000"/>
+        <n v="2200000"/>
+        <n v="88900000"/>
+        <n v="203300000"/>
+        <n v="270700000"/>
+        <n v="107900000"/>
+        <n v="47600000"/>
+        <n v="363200000"/>
+        <n v="19100000"/>
+        <n v="54400000"/>
+        <n v="54300000"/>
+        <n v="362600000"/>
+        <n v="222800000"/>
+        <n v="351700000"/>
+        <n v="320900000"/>
+        <n v="286200000"/>
+        <n v="161000000"/>
+        <n v="68500000"/>
+        <n v="103600000"/>
+        <n v="8600000"/>
+        <n v="411000000"/>
+        <n v="86200000"/>
+        <n v="128400000"/>
+        <n v="85500000"/>
+        <n v="142800000"/>
+        <n v="78100000"/>
+        <n v="107100000"/>
+        <n v="119800000"/>
+        <n v="48500000"/>
+        <n v="107600000"/>
+        <n v="5400000"/>
+        <n v="373000000"/>
+        <n v="12400000"/>
+        <n v="202200000"/>
+        <n v="115400000"/>
+        <n v="287100000"/>
+        <n v="244900000"/>
+        <n v="133699999.99999999"/>
+        <n v="17300000"/>
+        <n v="95400000"/>
+        <n v="117800000"/>
+        <n v="9500000"/>
+        <n v="31100000"/>
+        <n v="16399999.999999998"/>
+        <n v="122100000"/>
+        <n v="33200000.000000004"/>
+        <n v="102700000"/>
+        <n v="403400000"/>
+        <n v="78300000"/>
+        <n v="389900000"/>
+        <n v="1740000"/>
+        <n v="12800000"/>
+        <n v="148100000"/>
+        <n v="50400000"/>
+        <n v="240200000"/>
+        <n v="41300000"/>
+        <n v="100300000"/>
+        <n v="154500000"/>
+        <n v="500100000"/>
+        <n v="306900000"/>
+        <n v="46100000"/>
+        <n v="242700000"/>
+        <n v="59400000"/>
+        <n v="3400000"/>
+        <n v="71700000"/>
+        <n v="30000000"/>
+        <n v="90200000"/>
+        <n v="208100000"/>
+        <n v="83000000"/>
+        <n v="78400000"/>
+        <n v="30500000"/>
+        <n v="66800000"/>
+        <n v="114200000"/>
+        <n v="106000000"/>
+        <n v="84900000"/>
+        <n v="66700000"/>
+        <n v="52300000"/>
+        <n v="236400000"/>
+        <n v="39400000"/>
+        <n v="77700000"/>
+        <n v="52900000"/>
+        <n v="105000000"/>
+        <n v="396600000"/>
+        <n v="67800000"/>
+        <n v="92000000"/>
+        <n v="88300000"/>
+        <n v="235700000"/>
+        <n v="54800000"/>
+        <n v="196400000"/>
+        <n v="243000000"/>
+        <n v="34400000"/>
+        <n v="201600000"/>
+        <n v="32000000"/>
+        <n v="636700000"/>
+        <n v="376100000"/>
+        <n v="100500000"/>
+        <n v="549400000"/>
+        <n v="216700000"/>
+        <n v="493300000"/>
+        <n v="242500000"/>
+        <n v="440600000"/>
+        <n v="47200000"/>
+        <n v="40500000"/>
+        <n v="24900000"/>
+        <n v="110700000"/>
+        <n v="65700000"/>
+        <n v="757900000"/>
+        <n v="346900000"/>
+        <n v="136800000"/>
+        <n v="133300000.00000001"/>
+        <n v="78600000"/>
+        <n v="276100000"/>
+        <n v="109300000"/>
+        <n v="64200000"/>
+        <n v="176600000"/>
+        <n v="66500000"/>
+        <n v="68600000"/>
+        <n v="104900000"/>
+        <n v="16900000"/>
+        <n v="8900000"/>
+        <n v="318000000"/>
+        <n v="319500000"/>
+        <n v="587200000"/>
+        <n v="10900000"/>
+        <n v="101800000"/>
+        <n v="179400000"/>
+        <n v="179200000"/>
+        <n v="297300000"/>
+        <n v="18700000"/>
+        <n v="43500000"/>
+        <n v="2400000"/>
+        <n v="192300000"/>
+        <n v="305400000"/>
+        <n v="206200000"/>
+        <n v="307200000"/>
+        <n v="53900000"/>
+        <n v="37600000"/>
+        <n v="59000000"/>
+        <n v="67000000"/>
+        <n v="174800000"/>
+        <n v="351000000"/>
+        <n v="77300000"/>
+        <n v="24200000"/>
+        <n v="362000000"/>
+        <n v="155800000"/>
+        <n v="229900000"/>
+        <n v="956000000"/>
+        <n v="63300000"/>
+        <n v="694400000"/>
+        <n v="755400000"/>
+        <n v="653400000"/>
+        <n v="164600000"/>
+        <n v="233600000"/>
+        <n v="180300000"/>
+        <n v="15200000"/>
+        <n v="194600000"/>
+        <n v="93000000"/>
+        <n v="84400000"/>
+        <n v="48300000"/>
+        <n v="140400000"/>
+        <n v="38400000"/>
+        <n v="61300000"/>
+        <n v="352700000"/>
+        <n v="469200000"/>
+        <n v="99400000"/>
+        <n v="109800000"/>
+        <n v="20300000"/>
+        <n v="630200000"/>
+        <n v="348300000"/>
+        <n v="553800000"/>
+        <n v="155000000"/>
+        <n v="90600000"/>
+        <n v="52400000"/>
+        <n v="34800000"/>
+        <n v="120900000"/>
+        <n v="1100000"/>
+        <n v="196700000"/>
+        <n v="246200000"/>
+        <n v="60300000"/>
+        <n v="10400000"/>
+        <n v="123000000"/>
+        <n v="78500000"/>
+        <n v="89300000"/>
+        <n v="105600000"/>
+        <n v="6600000"/>
+        <n v="9140000"/>
+        <n v="29700000"/>
+        <n v="533000000"/>
+        <n v="724900000"/>
+        <n v="145600000"/>
+        <n v="93200000"/>
+        <n v="2420000"/>
+        <n v="16300000"/>
+        <n v="347500000"/>
+        <n v="6900000"/>
+        <n v="323400000"/>
+        <n v="123700000"/>
+        <n v="72600000"/>
+        <n v="829700000"/>
+        <n v="13500000"/>
+        <n v="98500000"/>
+        <n v="61200000"/>
+        <n v="30800000"/>
+        <n v="79800000"/>
+        <n v="40400000"/>
+        <n v="414800000"/>
+        <n v="128500000"/>
+        <n v="48900000"/>
+        <n v="7200000"/>
+        <n v="96100000"/>
+        <n v="126000000"/>
+        <n v="156500000"/>
+        <n v="26100000"/>
+        <n v="356800000"/>
+        <n v="198500000"/>
+        <n v="24300000"/>
+        <n v="103000000"/>
+        <n v="23400000"/>
+        <n v="49000000"/>
+        <n v="282600000"/>
+        <n v="1900000"/>
+        <n v="163400000"/>
+        <n v="14400000"/>
+        <n v="64099999.999999993"/>
+        <n v="15400000"/>
+        <n v="3500000"/>
+        <n v="34200000"/>
+        <n v="42700000"/>
+        <n v="73700000"/>
+        <n v="433500000"/>
+        <n v="117000000"/>
+        <n v="2700000"/>
+        <n v="30100000"/>
+        <n v="205000000"/>
+        <n v="52500000"/>
+        <n v="5500000"/>
+        <n v="61600000"/>
+        <n v="540000000"/>
+        <n v="305300000"/>
+        <n v="544600000"/>
+        <n v="747900000"/>
+        <n v="26800000"/>
+        <n v="132800000.00000001"/>
+        <n v="64470000"/>
+        <n v="56000000"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Quarters" numFmtId="0" databaseField="0">
       <fieldGroup base="1">
@@ -9206,7 +9663,7 @@
     <m/>
     <m/>
     <n v="15000000"/>
-    <n v="108300000"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="13 Hours: The Secret Soldiers of Benghazi"/>
@@ -9222,7 +9679,7 @@
     <s v="Pablo Schreiber"/>
     <s v="Max Martini"/>
     <n v="45000000"/>
-    <n v="69400000"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="2 Guns"/>
@@ -9238,7 +9695,7 @@
     <s v="Bill Paxton"/>
     <s v="Edward James Olmos"/>
     <n v="61000000"/>
-    <n v="131900000"/>
+    <x v="2"/>
   </r>
   <r>
     <s v="21 Jump Street"/>
@@ -9254,7 +9711,7 @@
     <s v="Brie Larson"/>
     <s v="Rob Riggle"/>
     <n v="55000000"/>
-    <n v="201500000"/>
+    <x v="3"/>
   </r>
   <r>
     <s v="22 Jump Street"/>
@@ -9270,7 +9727,7 @@
     <m/>
     <m/>
     <n v="84500000"/>
-    <n v="331300000"/>
+    <x v="4"/>
   </r>
   <r>
     <s v="300: Rise of an Empire"/>
@@ -9286,7 +9743,7 @@
     <s v="Hans Matheson"/>
     <s v="Lena Headey"/>
     <n v="110000000"/>
-    <n v="337600000"/>
+    <x v="5"/>
   </r>
   <r>
     <s v="42"/>
@@ -9302,7 +9759,7 @@
     <s v="Ryan Merriman"/>
     <s v="Andre Holland"/>
     <n v="40000000"/>
-    <n v="97500000"/>
+    <x v="6"/>
   </r>
   <r>
     <s v="71"/>
@@ -9318,7 +9775,7 @@
     <s v="Sam Reid"/>
     <m/>
     <n v="8100000"/>
-    <n v="2900000"/>
+    <x v="7"/>
   </r>
   <r>
     <s v="90 Minutes in Heaven"/>
@@ -9334,7 +9791,7 @@
     <s v="Michael W. Smith"/>
     <m/>
     <n v="5000000"/>
-    <n v="4800000"/>
+    <x v="8"/>
   </r>
   <r>
     <s v="A Good Day to Die Hard"/>
@@ -9350,7 +9807,7 @@
     <s v="Yuliya Snigir"/>
     <s v="Radivoje Bukvić"/>
     <n v="92000000"/>
-    <n v="304700000"/>
+    <x v="9"/>
   </r>
   <r>
     <s v="A Haunted House"/>
@@ -9366,7 +9823,7 @@
     <s v="Essence Atkins"/>
     <s v="Cedric the Entertainer"/>
     <n v="2500000"/>
-    <n v="60100000"/>
+    <x v="10"/>
   </r>
   <r>
     <s v="A Haunted House 2"/>
@@ -9382,7 +9839,7 @@
     <s v="Cedric the Entertainer"/>
     <s v="Gabriel Iglesias"/>
     <n v="4000000"/>
-    <n v="24000000"/>
+    <x v="11"/>
   </r>
   <r>
     <s v="A Long Way Down"/>
@@ -9398,7 +9855,7 @@
     <s v="Imogen Poots"/>
     <m/>
     <n v="22700000"/>
-    <n v="7100000"/>
+    <x v="12"/>
   </r>
   <r>
     <s v="A Most Violent Year"/>
@@ -9414,7 +9871,7 @@
     <s v="David Oyelowo"/>
     <s v="Albert Brooks"/>
     <n v="20000000"/>
-    <n v="12000000"/>
+    <x v="13"/>
   </r>
   <r>
     <s v="A Most Wanted Man"/>
@@ -9430,7 +9887,7 @@
     <s v="Willem Dafoe"/>
     <s v="Grigoriy Dobrygin"/>
     <n v="15000000"/>
-    <n v="36200000"/>
+    <x v="14"/>
   </r>
   <r>
     <s v="A Thousand Words"/>
@@ -9446,7 +9903,7 @@
     <s v="Clark Duke"/>
     <s v="Allison Janney"/>
     <n v="40000000"/>
-    <n v="22000000"/>
+    <x v="15"/>
   </r>
   <r>
     <s v="A Walk Among the Tombstones"/>
@@ -9462,7 +9919,7 @@
     <s v="Boyd Holbrook"/>
     <m/>
     <n v="28000000"/>
-    <n v="58800000"/>
+    <x v="16"/>
   </r>
   <r>
     <s v="A Walk in the Woods"/>
@@ -9478,7 +9935,7 @@
     <m/>
     <m/>
     <n v="8000000"/>
-    <n v="36000000"/>
+    <x v="17"/>
   </r>
   <r>
     <s v="Abraham Lincoln: Vampire Hunter"/>
@@ -9494,7 +9951,7 @@
     <s v="Mary Elizabeth Winstead"/>
     <s v="Rufus Sewell"/>
     <n v="99500000"/>
-    <n v="116400000"/>
+    <x v="18"/>
   </r>
   <r>
     <s v="After Earth"/>
@@ -9510,7 +9967,7 @@
     <s v="Zoe Kravitz"/>
     <m/>
     <n v="130000000"/>
-    <n v="243800000"/>
+    <x v="19"/>
   </r>
   <r>
     <s v="Ain't Them Bodies Saints"/>
@@ -9526,7 +9983,7 @@
     <s v="Rami Malek"/>
     <s v="Keith Carradine"/>
     <n v="4000000"/>
-    <n v="1000000"/>
+    <x v="20"/>
   </r>
   <r>
     <s v="Alex Cross"/>
@@ -9542,7 +9999,7 @@
     <s v="Edward Burns"/>
     <s v="Jean Reno"/>
     <n v="35000000"/>
-    <n v="34600000"/>
+    <x v="21"/>
   </r>
   <r>
     <s v="Aloha"/>
@@ -9558,7 +10015,7 @@
     <s v="Rachel McAdams"/>
     <s v="Bill Murray"/>
     <n v="52000000"/>
-    <n v="26300000"/>
+    <x v="22"/>
   </r>
   <r>
     <s v="Alvin and the Chipmunks: The Road Chip"/>
@@ -9574,7 +10031,7 @@
     <s v="Josh Green"/>
     <s v="Bella Thorne"/>
     <n v="90000000"/>
-    <n v="234800000"/>
+    <x v="23"/>
   </r>
   <r>
     <s v="American Reunion"/>
@@ -9590,7 +10047,7 @@
     <s v="Jason Biggs"/>
     <s v="Eugene Levy"/>
     <n v="50000000"/>
-    <n v="235000000"/>
+    <x v="24"/>
   </r>
   <r>
     <s v="American Sniper"/>
@@ -9606,7 +10063,7 @@
     <s v="Luke Grimes"/>
     <m/>
     <n v="58800000"/>
-    <n v="547400000"/>
+    <x v="25"/>
   </r>
   <r>
     <s v="American Ultra"/>
@@ -9622,7 +10079,7 @@
     <s v="Topher Grace"/>
     <s v="John Leguizamo"/>
     <n v="28000000"/>
-    <n v="27100000"/>
+    <x v="26"/>
   </r>
   <r>
     <s v="Amy"/>
@@ -9638,7 +10095,7 @@
     <s v="Raye Cosbert"/>
     <s v="Nick Shymansky"/>
     <n v="3400000"/>
-    <n v="22000000"/>
+    <x v="15"/>
   </r>
   <r>
     <s v="Annabelle"/>
@@ -9654,7 +10111,7 @@
     <s v="Brian Howe"/>
     <m/>
     <n v="6500000"/>
-    <n v="256899999.99999997"/>
+    <x v="27"/>
   </r>
   <r>
     <s v="Annie"/>
@@ -9670,7 +10127,7 @@
     <s v="Rose Byrne"/>
     <s v="Bobby Cannavale"/>
     <n v="65000000"/>
-    <n v="133800000.00000001"/>
+    <x v="28"/>
   </r>
   <r>
     <s v="Ant-Man"/>
@@ -9686,7 +10143,7 @@
     <s v="Bobby Cannavale"/>
     <s v="Michael Peña"/>
     <n v="130000000"/>
-    <n v="519400000"/>
+    <x v="29"/>
   </r>
   <r>
     <s v="Argo"/>
@@ -9702,7 +10159,7 @@
     <s v="Bryan Cranston"/>
     <s v="Victor Garber"/>
     <n v="44500000"/>
-    <n v="232300000"/>
+    <x v="30"/>
   </r>
   <r>
     <s v="As Above, So Below"/>
@@ -9718,7 +10175,7 @@
     <s v="François Civil"/>
     <s v="Marion Lambert"/>
     <n v="5000000"/>
-    <n v="5000000"/>
+    <x v="31"/>
   </r>
   <r>
     <s v="Bad Moms"/>
@@ -9734,7 +10191,7 @@
     <s v="Jada Pinkett Smith"/>
     <s v="Kathryn Hahn"/>
     <n v="20000000"/>
-    <n v="124200000"/>
+    <x v="32"/>
   </r>
   <r>
     <s v="Barbershop: The Next Cut"/>
@@ -9750,7 +10207,7 @@
     <s v="Regina Hall"/>
     <s v="Eve"/>
     <n v="20000000"/>
-    <n v="55000000"/>
+    <x v="33"/>
   </r>
   <r>
     <s v="Batman v Superman: Dawn of Justice"/>
@@ -9766,7 +10223,7 @@
     <s v="Jesse Eisenberg"/>
     <s v="Diane Lane"/>
     <n v="250000000"/>
-    <n v="872700000"/>
+    <x v="34"/>
   </r>
   <r>
     <s v="Batman: The Killing Joke"/>
@@ -9782,7 +10239,7 @@
     <s v="Ray Wise"/>
     <m/>
     <n v="3500000"/>
-    <n v="4400000"/>
+    <x v="35"/>
   </r>
   <r>
     <s v="Battle of the Year"/>
@@ -9798,7 +10255,7 @@
     <s v="Caity Lotz"/>
     <s v="Chris Brown"/>
     <n v="20000000"/>
-    <n v="16500000"/>
+    <x v="36"/>
   </r>
   <r>
     <s v="Battleship"/>
@@ -9814,7 +10271,7 @@
     <s v="Rihanna"/>
     <s v="Liam Neeson"/>
     <n v="220000000"/>
-    <n v="303000000"/>
+    <x v="37"/>
   </r>
   <r>
     <s v="Beasts of the Southern Wild"/>
@@ -9830,7 +10287,7 @@
     <m/>
     <m/>
     <n v="1800000"/>
-    <n v="21900000"/>
+    <x v="38"/>
   </r>
   <r>
     <s v="Beautiful Creatures"/>
@@ -9846,7 +10303,7 @@
     <s v="Emmy Rossum"/>
     <s v="Jeremy Irons"/>
     <n v="60000000"/>
-    <n v="60100000"/>
+    <x v="10"/>
   </r>
   <r>
     <s v="Before I Go to Sleep"/>
@@ -9862,7 +10319,7 @@
     <s v="Anne-Marie Duff"/>
     <m/>
     <n v="22000000"/>
-    <n v="15100000"/>
+    <x v="39"/>
   </r>
   <r>
     <s v="Ben-Hur"/>
@@ -9878,7 +10335,7 @@
     <s v="Rodrigo Santoro"/>
     <s v="Nazanin Boniadi"/>
     <n v="100000000"/>
-    <n v="41400000"/>
+    <x v="40"/>
   </r>
   <r>
     <s v="Beyond the Lights"/>
@@ -9894,7 +10351,7 @@
     <s v="Danny Glover"/>
     <m/>
     <n v="7000000"/>
-    <n v="14600000"/>
+    <x v="41"/>
   </r>
   <r>
     <s v="Big Eyes"/>
@@ -9910,7 +10367,7 @@
     <s v="Danny Huston"/>
     <s v="Terence Stamp"/>
     <n v="10000000"/>
-    <n v="29300000"/>
+    <x v="42"/>
   </r>
   <r>
     <s v="Black Mass"/>
@@ -9926,7 +10383,7 @@
     <s v="Sienna Miller"/>
     <s v="Dakota Johnson"/>
     <n v="53000000"/>
-    <n v="99800000"/>
+    <x v="43"/>
   </r>
   <r>
     <s v="Blackhat"/>
@@ -9942,7 +10399,7 @@
     <s v="Yorick van Wageningen"/>
     <s v="Tang Wei"/>
     <n v="70000000"/>
-    <n v="19700000"/>
+    <x v="44"/>
   </r>
   <r>
     <s v="Blended"/>
@@ -9958,7 +10415,7 @@
     <s v="Emma Fuhrmann"/>
     <s v="Terry Crews"/>
     <n v="40000000"/>
-    <n v="128000000"/>
+    <x v="45"/>
   </r>
   <r>
     <s v="Blue Jasmine"/>
@@ -9974,7 +10431,7 @@
     <s v="Louis C.K."/>
     <s v="Andrew Dice Clay"/>
     <n v="18000000"/>
-    <n v="97500000"/>
+    <x v="6"/>
   </r>
   <r>
     <s v="Boyhood"/>
@@ -9990,7 +10447,7 @@
     <m/>
     <m/>
     <n v="4000000"/>
-    <n v="44500000"/>
+    <x v="46"/>
   </r>
   <r>
     <s v="Brick Mansions"/>
@@ -10006,7 +10463,7 @@
     <m/>
     <m/>
     <n v="23000000"/>
-    <n v="69000000"/>
+    <x v="47"/>
   </r>
   <r>
     <s v="Bridge of Spies"/>
@@ -10022,7 +10479,7 @@
     <s v="Alan Alda"/>
     <s v="Austin Stowell"/>
     <n v="40000000"/>
-    <n v="165500000"/>
+    <x v="48"/>
   </r>
   <r>
     <s v="Brooklyn"/>
@@ -10038,7 +10495,7 @@
     <s v="Jim Broadbent"/>
     <s v="Julie Walters"/>
     <n v="11000000"/>
-    <n v="62100000"/>
+    <x v="49"/>
   </r>
   <r>
     <s v="Bullet to the Head"/>
@@ -10054,7 +10511,7 @@
     <s v="Adewale Akinnuoye-Agbaje"/>
     <s v="Religious Slater"/>
     <n v="55000000"/>
-    <n v="21900000"/>
+    <x v="38"/>
   </r>
   <r>
     <s v="Burnt"/>
@@ -10070,7 +10527,7 @@
     <s v="Sienna Miller"/>
     <s v="Daniel Brühl"/>
     <n v="20000000"/>
-    <n v="36600000"/>
+    <x v="50"/>
   </r>
   <r>
     <s v="By the Sea"/>
@@ -10086,7 +10543,7 @@
     <s v="Niels Arestrup"/>
     <s v="Melvil Poupaud"/>
     <n v="10000000"/>
-    <n v="3300000"/>
+    <x v="51"/>
   </r>
   <r>
     <s v="Captain America: The Winter Soldier"/>
@@ -10102,7 +10559,7 @@
     <s v="Anthony Mackie"/>
     <s v="Cobie Smulders"/>
     <n v="170000000"/>
-    <n v="714400000"/>
+    <x v="52"/>
   </r>
   <r>
     <s v="Captive"/>
@@ -10118,7 +10575,7 @@
     <s v="Leonor Varela"/>
     <s v="Jessica Oyelowo"/>
     <n v="2000000"/>
-    <n v="2800000"/>
+    <x v="53"/>
   </r>
   <r>
     <s v="Carol"/>
@@ -10134,7 +10591,7 @@
     <s v="Kyle Chandler"/>
     <s v="Jake Lacy"/>
     <n v="11800000"/>
-    <n v="40300000"/>
+    <x v="54"/>
   </r>
   <r>
     <s v="Central Intelligence"/>
@@ -10150,7 +10607,7 @@
     <s v="Aaron Paul"/>
     <m/>
     <n v="50000000"/>
-    <n v="212200000"/>
+    <x v="55"/>
   </r>
   <r>
     <s v="Cesar Chavez"/>
@@ -10166,7 +10623,7 @@
     <s v="John Malkovich"/>
     <m/>
     <n v="10000000"/>
-    <n v="6700000"/>
+    <x v="56"/>
   </r>
   <r>
     <s v="Chappie"/>
@@ -10182,7 +10639,7 @@
     <s v="Dev Patel"/>
     <s v="Hugh Jackman"/>
     <n v="49000000"/>
-    <n v="102100000"/>
+    <x v="57"/>
   </r>
   <r>
     <s v="Chasing Mavericks"/>
@@ -10198,7 +10655,7 @@
     <s v="Abigail Spencer"/>
     <m/>
     <n v="20000000"/>
-    <n v="8300000.0000000009"/>
+    <x v="58"/>
   </r>
   <r>
     <s v="Chef"/>
@@ -10214,7 +10671,7 @@
     <s v="John Leguizamo"/>
     <s v="Robert Downey"/>
     <n v="11000000"/>
-    <n v="46000000"/>
+    <x v="59"/>
   </r>
   <r>
     <s v="Chernobyl Diaries"/>
@@ -10230,7 +10687,7 @@
     <s v="Olivia Taylor Dudley"/>
     <s v="Nathan Phillips"/>
     <n v="1000000"/>
-    <n v="37200000"/>
+    <x v="60"/>
   </r>
   <r>
     <s v="Child 44"/>
@@ -10246,7 +10703,7 @@
     <s v="Noomi Rapace"/>
     <s v="Jason Clarke"/>
     <n v="50000000"/>
-    <n v="13000000"/>
+    <x v="61"/>
   </r>
   <r>
     <s v="Chronicle"/>
@@ -10262,7 +10719,7 @@
     <s v="Michael Kelly"/>
     <m/>
     <n v="12000000"/>
-    <n v="126600000"/>
+    <x v="62"/>
   </r>
   <r>
     <s v="Cloud Atlas"/>
@@ -10278,7 +10735,7 @@
     <s v="Jim Broadbent"/>
     <s v="Ben Whishaw"/>
     <n v="128500000"/>
-    <n v="130500000"/>
+    <x v="63"/>
   </r>
   <r>
     <s v="Cloudy with a Chance of Meatballs 2"/>
@@ -10294,7 +10751,7 @@
     <s v="Kristen Schaal"/>
     <s v="James Caan"/>
     <n v="78000000"/>
-    <n v="274300000"/>
+    <x v="64"/>
   </r>
   <r>
     <s v="Concussion"/>
@@ -10310,7 +10767,7 @@
     <s v="Albert Brooks"/>
     <s v="Paul Reiser"/>
     <n v="57000000"/>
-    <n v="50300000"/>
+    <x v="65"/>
   </r>
   <r>
     <s v="Creed"/>
@@ -10326,7 +10783,7 @@
     <s v="Graham McTavish"/>
     <s v="Tony Bellew"/>
     <n v="40000000"/>
-    <n v="173600000"/>
+    <x v="66"/>
   </r>
   <r>
     <s v="Criminal"/>
@@ -10342,7 +10799,7 @@
     <s v="Alice Eve"/>
     <s v="Gal Gadot"/>
     <n v="31500000"/>
-    <n v="35600000"/>
+    <x v="67"/>
   </r>
   <r>
     <s v="Crimson Peak"/>
@@ -10358,7 +10815,7 @@
     <s v="Jessica Chastain"/>
     <s v="Jim Beaver"/>
     <n v="55000000"/>
-    <n v="74700000"/>
+    <x v="68"/>
   </r>
   <r>
     <s v="Daddy's Home"/>
@@ -10374,7 +10831,7 @@
     <m/>
     <m/>
     <n v="69000000"/>
-    <n v="240400000"/>
+    <x v="69"/>
   </r>
   <r>
     <s v="Danny Collins"/>
@@ -10390,7 +10847,7 @@
     <s v="Bobby Cannavale"/>
     <s v="Christopher Plummer"/>
     <n v="10000000"/>
-    <n v="8199999.9999999991"/>
+    <x v="70"/>
   </r>
   <r>
     <s v="Dark Shadows"/>
@@ -10406,7 +10863,7 @@
     <s v="Eva Green"/>
     <s v="Jackie Earle Haley"/>
     <n v="150000000"/>
-    <n v="245500000"/>
+    <x v="71"/>
   </r>
   <r>
     <s v="Dark Skies"/>
@@ -10422,7 +10879,7 @@
     <m/>
     <m/>
     <n v="3500000"/>
-    <n v="26400000"/>
+    <x v="72"/>
   </r>
   <r>
     <s v="Dawn of the Planet of the Apes"/>
@@ -10438,7 +10895,7 @@
     <s v="Kodi Smit-McPhee"/>
     <s v="Keri Russell"/>
     <n v="235000000"/>
-    <n v="710600000"/>
+    <x v="73"/>
   </r>
   <r>
     <s v="Dead Man Down"/>
@@ -10454,7 +10911,7 @@
     <s v="Terrence Howard"/>
     <s v="Wade Barrett"/>
     <n v="30000000"/>
-    <n v="18100000"/>
+    <x v="74"/>
   </r>
   <r>
     <s v="Deadpool"/>
@@ -10470,7 +10927,7 @@
     <s v="Ed Skrein"/>
     <s v="Morena Baccarin"/>
     <n v="58000000"/>
-    <n v="782600000"/>
+    <x v="75"/>
   </r>
   <r>
     <s v="Declaration of War"/>
@@ -10486,7 +10943,7 @@
     <m/>
     <m/>
     <n v="1500000"/>
-    <n v="6500000"/>
+    <x v="76"/>
   </r>
   <r>
     <s v="Deliver Us from Evil"/>
@@ -10502,7 +10959,7 @@
     <s v="Joel McHale"/>
     <m/>
     <n v="30000000"/>
-    <n v="87900000"/>
+    <x v="77"/>
   </r>
   <r>
     <s v="Despicable Me 2"/>
@@ -10518,7 +10975,7 @@
     <s v="Dana Gaier"/>
     <s v="Elsie Fisher"/>
     <n v="76000000"/>
-    <n v="970800000"/>
+    <x v="78"/>
   </r>
   <r>
     <s v="Devil's Due"/>
@@ -10534,7 +10991,7 @@
     <s v="Aimee Carrero"/>
     <s v="Vanessa Ray"/>
     <n v="7000000"/>
-    <n v="36900000"/>
+    <x v="79"/>
   </r>
   <r>
     <s v="Diary of a Wimpy Kid: Dog Days"/>
@@ -10550,7 +11007,7 @@
     <s v="Devon Bostick"/>
     <s v="Steve Zahn"/>
     <n v="22000000"/>
-    <n v="77100000"/>
+    <x v="80"/>
   </r>
   <r>
     <s v="Divergent"/>
@@ -10566,7 +11023,7 @@
     <s v="Ansel Elgort"/>
     <s v="Zoë Kravitz"/>
     <n v="85000000"/>
-    <n v="288900000"/>
+    <x v="81"/>
   </r>
   <r>
     <s v="Django Unchained"/>
@@ -10582,7 +11039,7 @@
     <s v="Samuel L. Jackson"/>
     <s v="Bruce Dern"/>
     <n v="100000000"/>
-    <n v="425400000"/>
+    <x v="82"/>
   </r>
   <r>
     <s v="Dolphin Tale 2"/>
@@ -10598,7 +11055,7 @@
     <s v="Harry Connick"/>
     <s v="Jr."/>
     <n v="36000000"/>
-    <n v="57800000"/>
+    <x v="83"/>
   </r>
   <r>
     <s v="Don't Breathe"/>
@@ -10614,7 +11071,7 @@
     <m/>
     <m/>
     <n v="9900000"/>
-    <n v="28300000"/>
+    <x v="84"/>
   </r>
   <r>
     <s v="Dr. Seuss' The Lorax"/>
@@ -10630,7 +11087,7 @@
     <s v="Ed Helms"/>
     <s v="Rob Riggle"/>
     <n v="70000000"/>
-    <n v="348800000"/>
+    <x v="85"/>
   </r>
   <r>
     <s v="Dracula Untold"/>
@@ -10646,7 +11103,7 @@
     <s v="Dominic Cooper"/>
     <s v="Samantha Barks"/>
     <n v="70000000"/>
-    <n v="217100000"/>
+    <x v="86"/>
   </r>
   <r>
     <s v="Draft Day"/>
@@ -10662,7 +11119,7 @@
     <s v="Frank Langella"/>
     <s v="Tom Welling"/>
     <n v="25000000"/>
-    <n v="29500000"/>
+    <x v="87"/>
   </r>
   <r>
     <s v="Dragon Blade"/>
@@ -10678,7 +11135,7 @@
     <s v="Adrien Brody"/>
     <s v="James Lee Guy"/>
     <n v="65000000"/>
-    <n v="120000000"/>
+    <x v="88"/>
   </r>
   <r>
     <s v="Dumb and Dumber To"/>
@@ -10694,7 +11151,7 @@
     <s v="Laurie Holden"/>
     <m/>
     <n v="50000000"/>
-    <n v="169800000"/>
+    <x v="89"/>
   </r>
   <r>
     <s v="Earth to Echo"/>
@@ -10710,7 +11167,7 @@
     <s v="Ella Wahlestedt"/>
     <m/>
     <n v="13000000"/>
-    <n v="45300000"/>
+    <x v="90"/>
   </r>
   <r>
     <s v="Eddie the Eagle"/>
@@ -10726,7 +11183,7 @@
     <m/>
     <m/>
     <n v="23000000"/>
-    <n v="46200000"/>
+    <x v="91"/>
   </r>
   <r>
     <s v="Edge of Tomorrow"/>
@@ -10742,7 +11199,7 @@
     <m/>
     <m/>
     <n v="178000000"/>
-    <n v="370500000"/>
+    <x v="92"/>
   </r>
   <r>
     <s v="Elysium"/>
@@ -10758,7 +11215,7 @@
     <s v="Wagner Moura"/>
     <s v="Alice Braga"/>
     <n v="115000000"/>
-    <n v="286100000"/>
+    <x v="93"/>
   </r>
   <r>
     <s v="Embrace of the Serpent"/>
@@ -10774,7 +11231,7 @@
     <m/>
     <m/>
     <n v="1400000"/>
-    <n v="2800000"/>
+    <x v="53"/>
   </r>
   <r>
     <s v="End of Watch"/>
@@ -10790,7 +11247,7 @@
     <s v="Frank Grillo"/>
     <s v="America Ferrera"/>
     <n v="7000000"/>
-    <n v="48100000"/>
+    <x v="94"/>
   </r>
   <r>
     <s v="Enough Said"/>
@@ -10806,7 +11263,7 @@
     <s v="Catherine Keener"/>
     <s v="Ben Falcone"/>
     <n v="8000000"/>
-    <n v="25300000"/>
+    <x v="95"/>
   </r>
   <r>
     <s v="Entourage"/>
@@ -10822,7 +11279,7 @@
     <s v="Jerry Ferrara"/>
     <s v="Jeremy Piven"/>
     <n v="39000000"/>
-    <n v="49300000"/>
+    <x v="96"/>
   </r>
   <r>
     <s v="Epic"/>
@@ -10838,7 +11295,7 @@
     <s v="Jason Sudeikis"/>
     <s v="Christoph Waltz"/>
     <n v="93000000"/>
-    <n v="268399999.99999997"/>
+    <x v="97"/>
   </r>
   <r>
     <s v="Escape from Planet Earth"/>
@@ -10854,7 +11311,7 @@
     <s v="William Shatner"/>
     <s v="Sarah Jessica Parker"/>
     <n v="40000000"/>
-    <n v="74600000"/>
+    <x v="98"/>
   </r>
   <r>
     <s v="Evil Dead"/>
@@ -10870,7 +11327,7 @@
     <s v="Jessica Lucas"/>
     <s v="Elizabeth Blackmore"/>
     <n v="17000000"/>
-    <n v="97500000"/>
+    <x v="6"/>
   </r>
   <r>
     <s v="Ex Machina"/>
@@ -10886,7 +11343,7 @@
     <m/>
     <m/>
     <n v="15000000"/>
-    <n v="36900000"/>
+    <x v="79"/>
   </r>
   <r>
     <s v="Eye in the Sky"/>
@@ -10902,7 +11359,7 @@
     <s v="Barkhad Abdi"/>
     <m/>
     <n v="13000000"/>
-    <n v="32799999.999999996"/>
+    <x v="99"/>
   </r>
   <r>
     <s v="Fantastic Four"/>
@@ -10918,7 +11375,7 @@
     <s v="Jamie Bell"/>
     <s v="Toby Kebbell"/>
     <n v="120000000"/>
-    <n v="168000000"/>
+    <x v="100"/>
   </r>
   <r>
     <s v="Fast &amp; Furious 6"/>
@@ -10934,7 +11391,7 @@
     <s v="Michelle Rodriguez"/>
     <s v="Jordana Brewster"/>
     <n v="160000000"/>
-    <n v="788700000"/>
+    <x v="101"/>
   </r>
   <r>
     <s v="Flight"/>
@@ -10950,7 +11407,7 @@
     <s v="Bruce Greenwood"/>
     <s v="John Goodman"/>
     <n v="31000000"/>
-    <n v="161800000"/>
+    <x v="102"/>
   </r>
   <r>
     <s v="Florence Foster Jenkins"/>
@@ -10966,7 +11423,7 @@
     <s v="Nina Arianda"/>
     <s v="Rebecca Ferguson"/>
     <n v="19000000"/>
-    <n v="31700000"/>
+    <x v="103"/>
   </r>
   <r>
     <s v="Frances Ha"/>
@@ -10982,7 +11439,7 @@
     <s v="Grace Gummer"/>
     <s v="Patrick Heusinger"/>
     <n v="3000000"/>
-    <n v="11300000"/>
+    <x v="104"/>
   </r>
   <r>
     <s v="Free State of Jones"/>
@@ -10998,7 +11455,7 @@
     <s v="Mahershala Ali"/>
     <m/>
     <n v="50000000"/>
-    <n v="21200000"/>
+    <x v="105"/>
   </r>
   <r>
     <s v="Friends with Kids"/>
@@ -11014,7 +11471,7 @@
     <s v="Kristen Wiig"/>
     <s v="Maya Rudolph"/>
     <n v="10000000"/>
-    <n v="12200000"/>
+    <x v="106"/>
   </r>
   <r>
     <s v="Fun Size"/>
@@ -11030,7 +11487,7 @@
     <s v="Thomas Mann"/>
     <s v="Chelsea Handler"/>
     <n v="14000000"/>
-    <n v="11400000"/>
+    <x v="107"/>
   </r>
   <r>
     <s v="Fury"/>
@@ -11046,7 +11503,7 @@
     <s v="Michael Peña"/>
     <s v="Jon Bernthal"/>
     <n v="68000000"/>
-    <n v="211800000"/>
+    <x v="108"/>
   </r>
   <r>
     <s v="G.I. Joe: Retaliation"/>
@@ -11062,7 +11519,7 @@
     <s v="Bruce Willis"/>
     <s v="Elodie Yung"/>
     <n v="130000000"/>
-    <n v="375700000"/>
+    <x v="109"/>
   </r>
   <r>
     <s v="Gangster Squad"/>
@@ -11078,7 +11535,7 @@
     <s v="Josh Brolin"/>
     <s v="Robert Patrick"/>
     <n v="75000000"/>
-    <n v="105200000"/>
+    <x v="110"/>
   </r>
   <r>
     <s v="Get Hard"/>
@@ -11094,7 +11551,7 @@
     <s v="Craig T. Nelson"/>
     <s v="T.I."/>
     <n v="40000000"/>
-    <n v="111800000"/>
+    <x v="111"/>
   </r>
   <r>
     <s v="Get on Up"/>
@@ -11110,7 +11567,7 @@
     <s v="Jill Scott"/>
     <s v="Tika Sumpter"/>
     <n v="30000000"/>
-    <n v="33400000"/>
+    <x v="112"/>
   </r>
   <r>
     <s v="Getaway"/>
@@ -11126,7 +11583,7 @@
     <s v="James Maslow"/>
     <m/>
     <n v="18000000"/>
-    <n v="11800000"/>
+    <x v="113"/>
   </r>
   <r>
     <s v="Ghost Rider: Spirit of Vengeance"/>
@@ -11142,7 +11599,7 @@
     <s v="Ciarán Hinds"/>
     <s v="Violante Placido"/>
     <n v="57000000"/>
-    <n v="132600000"/>
+    <x v="114"/>
   </r>
   <r>
     <s v="Ghostbusters"/>
@@ -11158,7 +11615,7 @@
     <s v="Kate McKinnon"/>
     <s v="Chris Hemsworth"/>
     <n v="144000000"/>
-    <n v="217500000"/>
+    <x v="115"/>
   </r>
   <r>
     <s v="God's Not Dead"/>
@@ -11174,7 +11631,7 @@
     <s v="Kevin Sorbo"/>
     <s v="Korie Robertson"/>
     <n v="2000000"/>
-    <n v="62600000"/>
+    <x v="116"/>
   </r>
   <r>
     <s v="God's Not Dead 2"/>
@@ -11190,7 +11647,7 @@
     <s v="Robin Givens"/>
     <s v="Ernie Hudson"/>
     <n v="5000000"/>
-    <n v="23500000"/>
+    <x v="117"/>
   </r>
   <r>
     <s v="Gods of Egypt"/>
@@ -11206,7 +11663,7 @@
     <s v="Courtney Eaton"/>
     <s v="Nikolaj Coster-Waldau"/>
     <n v="140000000"/>
-    <n v="145700000"/>
+    <x v="118"/>
   </r>
   <r>
     <s v="Godzilla"/>
@@ -11222,7 +11679,7 @@
     <s v="Bryan Cranston"/>
     <s v="Juliette Binoche"/>
     <n v="160000000"/>
-    <n v="529000000"/>
+    <x v="119"/>
   </r>
   <r>
     <s v="Gone Girl"/>
@@ -11238,7 +11695,7 @@
     <s v="Tyler Perry"/>
     <s v="Kim Dickens"/>
     <n v="61000000"/>
-    <n v="369300000"/>
+    <x v="120"/>
   </r>
   <r>
     <s v="Good Deeds"/>
@@ -11254,7 +11711,7 @@
     <s v="Brian J. White"/>
     <s v="Jamie Kennedy"/>
     <n v="14000000"/>
-    <n v="35600000"/>
+    <x v="67"/>
   </r>
   <r>
     <s v="Goosebumps"/>
@@ -11270,7 +11727,7 @@
     <s v="Amy Ryan"/>
     <s v="Ryan Lee"/>
     <n v="84000000"/>
-    <n v="150200000"/>
+    <x v="121"/>
   </r>
   <r>
     <s v="Grown Ups 2"/>
@@ -11286,7 +11743,7 @@
     <s v="David Spade"/>
     <s v="Taylor Lautner"/>
     <n v="80000000"/>
-    <n v="247000000"/>
+    <x v="122"/>
   </r>
   <r>
     <s v="Hail, Caesar!"/>
@@ -11302,7 +11759,7 @@
     <s v="Ralph Fiennes"/>
     <s v="Jonah Hill"/>
     <n v="22000000"/>
-    <n v="22000000"/>
+    <x v="15"/>
   </r>
   <r>
     <s v="Hands of Stone"/>
@@ -11318,7 +11775,7 @@
     <s v="Ellen Barkin"/>
     <s v="Ana de Armas"/>
     <n v="20000000"/>
-    <n v="1700000"/>
+    <x v="123"/>
   </r>
   <r>
     <s v="Hansel and Gretel: Witch Hunters"/>
@@ -11334,7 +11791,7 @@
     <s v="Famke Janssen"/>
     <s v="Peter Stormare"/>
     <n v="50000000"/>
-    <n v="226300000"/>
+    <x v="124"/>
   </r>
   <r>
     <s v="Heaven Is for Real"/>
@@ -11350,7 +11807,7 @@
     <s v="Thomas Haden Church"/>
     <s v="Jacob Vargas"/>
     <n v="12000000"/>
-    <n v="101300000"/>
+    <x v="125"/>
   </r>
   <r>
     <s v="Here Comes the Boom"/>
@@ -11366,7 +11823,7 @@
     <s v="Joe Rogan"/>
     <m/>
     <n v="42000000"/>
-    <n v="73100000"/>
+    <x v="126"/>
   </r>
   <r>
     <s v="Hit and Run"/>
@@ -11382,7 +11839,7 @@
     <s v="Tom Arnold"/>
     <s v="Kristin Chenoweth"/>
     <n v="2000000"/>
-    <n v="14500000"/>
+    <x v="127"/>
   </r>
   <r>
     <s v="Hitman: Agent 47"/>
@@ -11398,7 +11855,7 @@
     <s v="Thomas Kretschmann"/>
     <m/>
     <n v="35000000"/>
-    <n v="82300000"/>
+    <x v="128"/>
   </r>
   <r>
     <s v="Home"/>
@@ -11414,7 +11871,7 @@
     <s v="Steve Martin"/>
     <s v="Matt Jones"/>
     <n v="135000000"/>
-    <n v="386000000"/>
+    <x v="129"/>
   </r>
   <r>
     <s v="Hope Springs"/>
@@ -11430,7 +11887,7 @@
     <s v="Mimi Rogers"/>
     <s v="Elisabeth Shue"/>
     <n v="30000000"/>
-    <n v="114300000"/>
+    <x v="130"/>
   </r>
   <r>
     <s v="Horrible Bosses 2"/>
@@ -11446,7 +11903,7 @@
     <s v="Kevin Spacey"/>
     <s v="Jennifer Aniston"/>
     <n v="57000000"/>
-    <n v="107700000"/>
+    <x v="131"/>
   </r>
   <r>
     <s v="Hot Pursuit"/>
@@ -11462,7 +11919,7 @@
     <s v="John Carroll Lynch"/>
     <m/>
     <n v="35000000"/>
-    <n v="51700000"/>
+    <x v="132"/>
   </r>
   <r>
     <s v="Hotel Transylvania"/>
@@ -11478,7 +11935,7 @@
     <s v="Kevin James"/>
     <s v="Fran Drescher"/>
     <n v="85000000"/>
-    <n v="358400000"/>
+    <x v="133"/>
   </r>
   <r>
     <s v="Hotel Transylvania 2"/>
@@ -11494,7 +11951,7 @@
     <s v="Kevin James"/>
     <s v="Steve Buscemi"/>
     <n v="80000000"/>
-    <n v="473000000"/>
+    <x v="134"/>
   </r>
   <r>
     <s v="How to Train Your Dragon 2"/>
@@ -11510,7 +11967,7 @@
     <s v="America Ferrera"/>
     <s v="Jonah Hill"/>
     <n v="145000000"/>
-    <n v="621500000"/>
+    <x v="135"/>
   </r>
   <r>
     <s v="I"/>
@@ -11526,7 +11983,7 @@
     <s v="Suresh Gopi"/>
     <s v="Upen Patel"/>
     <n v="15000000"/>
-    <n v="65000000"/>
+    <x v="136"/>
   </r>
   <r>
     <s v="I Saw the Light"/>
@@ -11542,7 +11999,7 @@
     <m/>
     <m/>
     <n v="13000000"/>
-    <n v="2600000"/>
+    <x v="137"/>
   </r>
   <r>
     <s v="Ice Age: Collision Course"/>
@@ -11558,7 +12015,7 @@
     <s v="Queen Latifah"/>
     <s v="Jennifer Lopez"/>
     <n v="105000000"/>
-    <n v="368300000"/>
+    <x v="138"/>
   </r>
   <r>
     <s v="Ice Age: Continental Drift"/>
@@ -11574,7 +12031,7 @@
     <s v="Queen Latifah"/>
     <s v="Seann William Scott"/>
     <n v="95000000"/>
-    <n v="877000000"/>
+    <x v="139"/>
   </r>
   <r>
     <s v="Identity Thief"/>
@@ -11590,7 +12047,7 @@
     <s v="John Cho"/>
     <s v="Clark Duke"/>
     <n v="35000000"/>
-    <n v="174000000"/>
+    <x v="140"/>
   </r>
   <r>
     <s v="If I Stay"/>
@@ -11606,7 +12063,7 @@
     <s v="Liana Liberato"/>
     <s v="Jamie Blackley"/>
     <n v="11000000"/>
-    <n v="78900000"/>
+    <x v="141"/>
   </r>
   <r>
     <s v="In the Heart of the Sea"/>
@@ -11622,7 +12079,7 @@
     <s v="Tom Holland"/>
     <s v="Ben Whishaw"/>
     <n v="100000000"/>
-    <n v="93900000"/>
+    <x v="142"/>
   </r>
   <r>
     <s v="Independence Day: Resurgence"/>
@@ -11638,7 +12095,7 @@
     <s v="Liam Hemsworth"/>
     <s v="Vivica A. Fox"/>
     <n v="165000000"/>
-    <n v="382300000"/>
+    <x v="143"/>
   </r>
   <r>
     <s v="Insidious: Chapter 2"/>
@@ -11654,7 +12111,7 @@
     <s v="Ty Simpkins"/>
     <m/>
     <n v="5000000"/>
-    <n v="161900000"/>
+    <x v="144"/>
   </r>
   <r>
     <s v="Insidious: Chapter 3"/>
@@ -11670,7 +12127,7 @@
     <s v="Leigh Whannell"/>
     <s v="Lin Shaye"/>
     <n v="11000000"/>
-    <n v="113000000"/>
+    <x v="145"/>
   </r>
   <r>
     <s v="Interstellar"/>
@@ -11686,7 +12143,7 @@
     <s v="Jessica Chastain"/>
     <s v="Matt Damon"/>
     <n v="165000000"/>
-    <n v="675100000"/>
+    <x v="146"/>
   </r>
   <r>
     <s v="Into the Storm"/>
@@ -11702,7 +12159,7 @@
     <s v="Nathan Kress"/>
     <m/>
     <n v="50000000"/>
-    <n v="161700000"/>
+    <x v="147"/>
   </r>
   <r>
     <s v="Iron Sky"/>
@@ -11718,7 +12175,7 @@
     <s v="Chris Kirby"/>
     <s v="Udo Kier"/>
     <n v="7500000"/>
-    <n v="8100000"/>
+    <x v="148"/>
   </r>
   <r>
     <s v="Irrational Man"/>
@@ -11734,7 +12191,7 @@
     <s v="Jamie Blackley"/>
     <m/>
     <n v="11000000"/>
-    <n v="27400000"/>
+    <x v="149"/>
   </r>
   <r>
     <s v="Jack Reacher"/>
@@ -11750,7 +12207,7 @@
     <s v="Richard Jenkins"/>
     <s v="Alexia Fast"/>
     <n v="60000000"/>
-    <n v="218300000"/>
+    <x v="150"/>
   </r>
   <r>
     <s v="Jack Ryan: Shadow Recruit"/>
@@ -11766,7 +12223,7 @@
     <s v="Steve Zaillian"/>
     <s v="Chris Pine"/>
     <n v="60000000"/>
-    <n v="135500000"/>
+    <x v="151"/>
   </r>
   <r>
     <s v="Jane Got a Gun"/>
@@ -11782,7 +12239,7 @@
     <s v="Rodrigo Santoro"/>
     <s v="Noah Emmerich"/>
     <n v="25000000"/>
-    <n v="3000000"/>
+    <x v="152"/>
   </r>
   <r>
     <s v="Jason Bourne"/>
@@ -11798,7 +12255,7 @@
     <s v="Riz Ahmed"/>
     <s v="Vincent Cassel"/>
     <n v="120000000"/>
-    <n v="347900000"/>
+    <x v="153"/>
   </r>
   <r>
     <s v="Jeff, Who Lives at Home"/>
@@ -11814,7 +12271,7 @@
     <s v="Susan Sarandon"/>
     <s v="Evan Ross"/>
     <n v="7500000"/>
-    <n v="7500000"/>
+    <x v="154"/>
   </r>
   <r>
     <s v="Jem and the Holograms"/>
@@ -11830,7 +12287,7 @@
     <s v="Aurora Perrineau"/>
     <s v="Ryan Guzman"/>
     <n v="5000000"/>
-    <n v="2300000"/>
+    <x v="155"/>
   </r>
   <r>
     <s v="Jersey Boys"/>
@@ -11846,7 +12303,7 @@
     <s v="Michael Lamenda"/>
     <s v="Christopher Walken"/>
     <n v="58600000"/>
-    <n v="67700000"/>
+    <x v="156"/>
   </r>
   <r>
     <s v="Jobs"/>
@@ -11862,7 +12319,7 @@
     <s v="Lukas Haas"/>
     <s v="J.K. Simmons"/>
     <n v="12000000"/>
-    <n v="35900000"/>
+    <x v="157"/>
   </r>
   <r>
     <s v="John Wick"/>
@@ -11878,7 +12335,7 @@
     <m/>
     <m/>
     <n v="20000000"/>
-    <n v="86000000"/>
+    <x v="158"/>
   </r>
   <r>
     <s v="Journey 2: The Mysterious Island"/>
@@ -11894,7 +12351,7 @@
     <s v="Vanessa Hudgens"/>
     <s v="Luis Guzmán"/>
     <n v="79000000"/>
-    <n v="335300000"/>
+    <x v="159"/>
   </r>
   <r>
     <s v="Joy"/>
@@ -11910,7 +12367,7 @@
     <s v="Édgar Ramírez"/>
     <m/>
     <n v="60000000"/>
-    <n v="101100000"/>
+    <x v="160"/>
   </r>
   <r>
     <s v="Keanu"/>
@@ -11926,7 +12383,7 @@
     <s v="Gabrielle Union"/>
     <s v="Will Forte"/>
     <n v="15000000"/>
-    <n v="20700000"/>
+    <x v="161"/>
   </r>
   <r>
     <s v="Kill the Messenger"/>
@@ -11942,7 +12399,7 @@
     <s v="Rosemarie DeWitt"/>
     <s v="Ray Liotta"/>
     <n v="5000000"/>
-    <n v="2500000"/>
+    <x v="162"/>
   </r>
   <r>
     <s v="Killing Them Softly"/>
@@ -11958,7 +12415,7 @@
     <s v="Ben Mendelsohn"/>
     <s v="Ray Liotta"/>
     <n v="15000000"/>
-    <n v="37900000"/>
+    <x v="163"/>
   </r>
   <r>
     <s v="Kingsman: The Secret Service"/>
@@ -11974,7 +12431,7 @@
     <s v="Mark Strong"/>
     <s v="Michael Caine"/>
     <n v="94000000"/>
-    <n v="414400000"/>
+    <x v="164"/>
   </r>
   <r>
     <s v="Krampus"/>
@@ -11990,7 +12447,7 @@
     <m/>
     <m/>
     <n v="15000000"/>
-    <n v="61500000"/>
+    <x v="165"/>
   </r>
   <r>
     <s v="Kubo and the Two Strings"/>
@@ -12006,7 +12463,7 @@
     <s v="Charlize Theron"/>
     <s v="Ralph Fiennes"/>
     <n v="60000000"/>
-    <n v="27600000"/>
+    <x v="166"/>
   </r>
   <r>
     <s v="Kung Fu Panda 3"/>
@@ -12022,7 +12479,7 @@
     <s v="Jackie Chan"/>
     <s v="Seth Rogen"/>
     <n v="145000000"/>
-    <n v="519900000"/>
+    <x v="167"/>
   </r>
   <r>
     <s v="Lazer Team"/>
@@ -12038,7 +12495,7 @@
     <s v="Colton Dunn"/>
     <s v="Allie DeBerry"/>
     <n v="2400000"/>
-    <n v="1600000"/>
+    <x v="168"/>
   </r>
   <r>
     <s v="Left Behind"/>
@@ -12054,7 +12511,7 @@
     <s v="Nicky Whelan"/>
     <s v="Jordin Sparks"/>
     <n v="16000000"/>
-    <n v="27600000"/>
+    <x v="166"/>
   </r>
   <r>
     <s v="Les Misérables"/>
@@ -12070,7 +12527,7 @@
     <s v="Colm Wilkinson"/>
     <s v="Anne Hathaway"/>
     <n v="61000000"/>
-    <n v="441800000"/>
+    <x v="169"/>
   </r>
   <r>
     <s v="Let's Be Cops"/>
@@ -12086,7 +12543,7 @@
     <m/>
     <m/>
     <n v="17000000"/>
-    <n v="138200000"/>
+    <x v="170"/>
   </r>
   <r>
     <s v="Life of Pi"/>
@@ -12102,7 +12559,7 @@
     <s v="Gérard Depardieu"/>
     <m/>
     <n v="120000000"/>
-    <n v="609000000"/>
+    <x v="171"/>
   </r>
   <r>
     <s v="Lights Out"/>
@@ -12118,7 +12575,7 @@
     <m/>
     <m/>
     <n v="4900000"/>
-    <n v="125900000"/>
+    <x v="172"/>
   </r>
   <r>
     <s v="Lincoln"/>
@@ -12134,7 +12591,7 @@
     <s v="Sally Field"/>
     <s v="Joseph Gordon-Levitt"/>
     <n v="65000000"/>
-    <n v="275300000"/>
+    <x v="173"/>
   </r>
   <r>
     <s v="Little Boy"/>
@@ -12150,7 +12607,7 @@
     <s v="Emily Watson"/>
     <s v="Ted Levine"/>
     <n v="20000000"/>
-    <n v="17500000"/>
+    <x v="174"/>
   </r>
   <r>
     <s v="Lockout"/>
@@ -12166,7 +12623,7 @@
     <s v="Lennie James"/>
     <s v="Vincent Regan"/>
     <n v="20000000"/>
-    <n v="32200000.000000004"/>
+    <x v="175"/>
   </r>
   <r>
     <s v="London Has Fallen"/>
@@ -12182,7 +12639,7 @@
     <s v="Angela Bassett"/>
     <s v="Alon Aboutboul"/>
     <n v="60000000"/>
-    <n v="195700000"/>
+    <x v="176"/>
   </r>
   <r>
     <s v="Looper"/>
@@ -12198,7 +12655,7 @@
     <s v="Paul Dano"/>
     <s v="Noah Segan"/>
     <n v="30000000"/>
-    <n v="176500000"/>
+    <x v="177"/>
   </r>
   <r>
     <s v="Love the Coopers"/>
@@ -12214,7 +12671,7 @@
     <s v="Alan Arkin"/>
     <s v="Olivia Wilde"/>
     <n v="24000000"/>
-    <n v="41100000"/>
+    <x v="178"/>
   </r>
   <r>
     <s v="Lucy"/>
@@ -12230,7 +12687,7 @@
     <m/>
     <m/>
     <n v="40000000"/>
-    <n v="463400000"/>
+    <x v="179"/>
   </r>
   <r>
     <s v="Mad Max: Fury Road"/>
@@ -12246,7 +12703,7 @@
     <s v="Nicholas Hoult"/>
     <s v="Rosie Huntington-Whiteley"/>
     <n v="150000000"/>
-    <n v="378400000"/>
+    <x v="180"/>
   </r>
   <r>
     <s v="Madagascar 3: Europe's Most Wanted"/>
@@ -12262,7 +12719,7 @@
     <s v="Jada Pinkett Smith"/>
     <s v="Sacha Baron Cohen"/>
     <n v="145000000"/>
-    <n v="746900000"/>
+    <x v="181"/>
   </r>
   <r>
     <s v="Magic in the Moonlight"/>
@@ -12278,7 +12735,7 @@
     <s v="Marcia Gay Harden"/>
     <s v="Jacki Weaver"/>
     <n v="16800000"/>
-    <n v="51000000"/>
+    <x v="182"/>
   </r>
   <r>
     <s v="Mama"/>
@@ -12294,7 +12751,7 @@
     <s v="David Fox"/>
     <m/>
     <n v="15000000"/>
-    <n v="146400000"/>
+    <x v="183"/>
   </r>
   <r>
     <s v="Man of Steel"/>
@@ -12310,7 +12767,7 @@
     <s v="Kevin Costner"/>
     <s v="Diane Lane"/>
     <n v="225000000"/>
-    <n v="668000000"/>
+    <x v="184"/>
   </r>
   <r>
     <s v="Man on a Ledge"/>
@@ -12326,7 +12783,7 @@
     <s v="Jamie Bell"/>
     <s v="Kyra Sedgwick"/>
     <n v="42000000"/>
-    <n v="46200000"/>
+    <x v="91"/>
   </r>
   <r>
     <s v="Max"/>
@@ -12342,7 +12799,7 @@
     <m/>
     <m/>
     <n v="20000000"/>
-    <n v="44000000"/>
+    <x v="185"/>
   </r>
   <r>
     <s v="Maze Runner: The Scorch Trials"/>
@@ -12358,7 +12815,7 @@
     <s v="Kaya Scodelario"/>
     <s v="Patricia Clarkson"/>
     <n v="61000000"/>
-    <n v="312300000"/>
+    <x v="186"/>
   </r>
   <r>
     <s v="Me and Earl and the Dying Girl"/>
@@ -12374,7 +12831,7 @@
     <s v="Jon Bernthal"/>
     <s v="Nick Offerman"/>
     <n v="8000000"/>
-    <n v="9100000"/>
+    <x v="187"/>
   </r>
   <r>
     <s v="Me Before You"/>
@@ -12390,7 +12847,7 @@
     <s v="Jenna Coleman"/>
     <s v="Janet McTeer"/>
     <n v="20000000"/>
-    <n v="196200000"/>
+    <x v="188"/>
   </r>
   <r>
     <s v="Mechanic: Resurrection"/>
@@ -12406,7 +12863,7 @@
     <s v="Michelle Yeoh"/>
     <m/>
     <n v="40000000"/>
-    <n v="7500000"/>
+    <x v="154"/>
   </r>
   <r>
     <s v="Men in Black 3"/>
@@ -12422,7 +12879,7 @@
     <s v="Jemaine Clement"/>
     <s v="Emma Thompson"/>
     <n v="215000000"/>
-    <n v="624000000"/>
+    <x v="189"/>
   </r>
   <r>
     <s v="Midnight Special"/>
@@ -12438,7 +12895,7 @@
     <s v="Joel Edgerton"/>
     <s v="Sam Shepard"/>
     <n v="18000000"/>
-    <n v="6200000"/>
+    <x v="190"/>
   </r>
   <r>
     <s v="Miracles from Heaven"/>
@@ -12454,7 +12911,7 @@
     <m/>
     <m/>
     <n v="13000000"/>
-    <n v="73600000"/>
+    <x v="191"/>
   </r>
   <r>
     <s v="Mirror Mirror"/>
@@ -12470,7 +12927,7 @@
     <s v="Nathan Lane"/>
     <s v="Robert Emms"/>
     <n v="85000000"/>
-    <n v="183000000"/>
+    <x v="192"/>
   </r>
   <r>
     <s v="Mission: Impossible – Rogue Nation"/>
@@ -12486,7 +12943,7 @@
     <s v="Ving Rhames"/>
     <s v="Rebecca Ferguson"/>
     <n v="150000000"/>
-    <n v="682300000"/>
+    <x v="193"/>
   </r>
   <r>
     <s v="Moms' Night Out"/>
@@ -12502,7 +12959,7 @@
     <s v="Patricia Heaton"/>
     <m/>
     <n v="5000000"/>
-    <n v="10500000"/>
+    <x v="194"/>
   </r>
   <r>
     <s v="Money Monster"/>
@@ -12518,7 +12975,7 @@
     <s v="Dominic West"/>
     <s v="Caitriona Balfe"/>
     <n v="27000000"/>
-    <n v="93100000"/>
+    <x v="195"/>
   </r>
   <r>
     <s v="Monster Hunt"/>
@@ -12534,7 +12991,7 @@
     <s v="Elaine Jin"/>
     <m/>
     <n v="56000000"/>
-    <n v="385200000"/>
+    <x v="196"/>
   </r>
   <r>
     <s v="Moonrise Kingdom ₪"/>
@@ -12550,7 +13007,7 @@
     <s v="Edward Norton"/>
     <s v="Bill Murray"/>
     <n v="16000000"/>
-    <n v="68300000"/>
+    <x v="197"/>
   </r>
   <r>
     <s v="Mortdecai"/>
@@ -12566,7 +13023,7 @@
     <s v="Aubrey Plaza"/>
     <s v="Oliver Platt"/>
     <n v="60000000"/>
-    <n v="47000000"/>
+    <x v="198"/>
   </r>
   <r>
     <s v="Mother's Day"/>
@@ -12582,7 +13039,7 @@
     <s v="Timothy Olyphant"/>
     <s v="Jason Sudeikis"/>
     <n v="25000000"/>
-    <n v="43800000"/>
+    <x v="199"/>
   </r>
   <r>
     <s v="Mr. Peabody &amp; Sherman"/>
@@ -12598,7 +13055,7 @@
     <s v="Allison Janney"/>
     <s v="Ariel Winter"/>
     <n v="145000000"/>
-    <n v="275700000"/>
+    <x v="200"/>
   </r>
   <r>
     <s v="Mud"/>
@@ -12614,7 +13071,7 @@
     <s v="Sarah Paulson"/>
     <s v="Sam Shepard"/>
     <n v="10000000"/>
-    <n v="32600000"/>
+    <x v="201"/>
   </r>
   <r>
     <s v="Mustang"/>
@@ -12630,7 +13087,7 @@
     <m/>
     <m/>
     <n v="1300000"/>
-    <n v="4900000"/>
+    <x v="202"/>
   </r>
   <r>
     <s v="My All American"/>
@@ -12646,7 +13103,7 @@
     <s v="Sarah Bolger"/>
     <s v="Michael Reilly Burke"/>
     <n v="20000000"/>
-    <n v="2200000"/>
+    <x v="203"/>
   </r>
   <r>
     <s v="My Big Fat Greek Wedding 2"/>
@@ -12662,7 +13119,7 @@
     <s v="Elena Kampouris"/>
     <m/>
     <n v="18000000"/>
-    <n v="88900000"/>
+    <x v="204"/>
   </r>
   <r>
     <s v="Need for Speed"/>
@@ -12678,7 +13135,7 @@
     <s v="Michael Keaton"/>
     <s v="Ramón Rodríguez"/>
     <n v="65000000"/>
-    <n v="203300000"/>
+    <x v="205"/>
   </r>
   <r>
     <s v="Neighbors"/>
@@ -12694,7 +13151,7 @@
     <s v="Christopher Mintz-Plasse"/>
     <s v="Dave Franco"/>
     <n v="18000000"/>
-    <n v="270700000"/>
+    <x v="206"/>
   </r>
   <r>
     <s v="Neighbors 2: Sorority Rising"/>
@@ -12710,7 +13167,7 @@
     <s v="Chloë Grace Moretz"/>
     <s v="Dave Franco"/>
     <n v="35000000"/>
-    <n v="107900000"/>
+    <x v="207"/>
   </r>
   <r>
     <s v="Nerve"/>
@@ -12726,7 +13183,7 @@
     <s v="Kimiko Glenn"/>
     <s v="Juliette Lewis"/>
     <n v="20000000"/>
-    <n v="47600000"/>
+    <x v="208"/>
   </r>
   <r>
     <s v="Night at the Museum: Secret of the Tomb"/>
@@ -12742,7 +13199,7 @@
     <s v="Owen Wilson"/>
     <s v="Ricky Gervais"/>
     <n v="127000000"/>
-    <n v="363200000"/>
+    <x v="209"/>
   </r>
   <r>
     <s v="Nightcrawler"/>
@@ -12758,7 +13215,7 @@
     <s v="Riz Ahmed"/>
     <m/>
     <n v="8500000"/>
-    <n v="50300000"/>
+    <x v="65"/>
   </r>
   <r>
     <s v="Nine Lives"/>
@@ -12774,7 +13231,7 @@
     <s v="Christopher Walken"/>
     <s v="Malina Weissman"/>
     <n v="30000000"/>
-    <n v="19100000"/>
+    <x v="210"/>
   </r>
   <r>
     <s v="No Escape"/>
@@ -12790,7 +13247,7 @@
     <m/>
     <m/>
     <n v="5000000"/>
-    <n v="54400000"/>
+    <x v="211"/>
   </r>
   <r>
     <s v="No Good Deed"/>
@@ -12806,7 +13263,7 @@
     <m/>
     <m/>
     <n v="13200000"/>
-    <n v="54300000"/>
+    <x v="212"/>
   </r>
   <r>
     <s v="No One Lives"/>
@@ -12822,7 +13279,7 @@
     <s v="Derek Magyar"/>
     <s v="Lindsey Shaw"/>
     <n v="2900000"/>
-    <n v="1000000"/>
+    <x v="20"/>
   </r>
   <r>
     <s v="Noah"/>
@@ -12838,7 +13295,7 @@
     <s v="Emma Watson"/>
     <s v="Ray Winstone"/>
     <n v="125000000"/>
-    <n v="362600000"/>
+    <x v="213"/>
   </r>
   <r>
     <s v="Non-Stop"/>
@@ -12854,7 +13311,7 @@
     <s v="Nate Parker"/>
     <s v="Michelle Dockery"/>
     <n v="50000000"/>
-    <n v="222800000"/>
+    <x v="214"/>
   </r>
   <r>
     <s v="Now You See Me"/>
@@ -12870,7 +13327,7 @@
     <s v="Woody Harrelson"/>
     <s v="Mark Ruffalo"/>
     <n v="75000000"/>
-    <n v="351700000"/>
+    <x v="215"/>
   </r>
   <r>
     <s v="Now You See Me 2"/>
@@ -12886,7 +13343,7 @@
     <s v="Dave Franco"/>
     <s v="Lizzy Caplan"/>
     <n v="90000000"/>
-    <n v="320900000"/>
+    <x v="216"/>
   </r>
   <r>
     <s v="Oblivion"/>
@@ -12902,7 +13359,7 @@
     <s v="Morgan Freeman"/>
     <s v="Nikolaj Coster-Waldau"/>
     <n v="120000000"/>
-    <n v="286200000"/>
+    <x v="217"/>
   </r>
   <r>
     <s v="Olympus Has Fallen"/>
@@ -12918,7 +13375,7 @@
     <s v="Rick Yune"/>
     <s v="Dylan McDermott"/>
     <n v="70000000"/>
-    <n v="161000000"/>
+    <x v="218"/>
   </r>
   <r>
     <s v="One Direction: This Is Us"/>
@@ -12934,7 +13391,7 @@
     <s v="Zayn Malik"/>
     <s v="Liam Payne"/>
     <n v="10000000"/>
-    <n v="68500000"/>
+    <x v="219"/>
   </r>
   <r>
     <s v="One for the Money"/>
@@ -12950,7 +13407,7 @@
     <s v="Daniel Sunjata"/>
     <s v="Sherri Shepherd"/>
     <n v="40000000"/>
-    <n v="36900000"/>
+    <x v="79"/>
   </r>
   <r>
     <s v="Ouija"/>
@@ -12966,7 +13423,7 @@
     <s v="Ana Coto"/>
     <s v="Erin Moriarty"/>
     <n v="5000000"/>
-    <n v="103600000"/>
+    <x v="220"/>
   </r>
   <r>
     <s v="Our Brand Is Crisis"/>
@@ -12982,7 +13439,7 @@
     <s v="Anthony Mackie"/>
     <s v="Ann Dowd"/>
     <n v="28000000"/>
-    <n v="8600000"/>
+    <x v="221"/>
   </r>
   <r>
     <s v="Pacific Rim"/>
@@ -12998,7 +13455,7 @@
     <s v="Charlie Day"/>
     <s v="Rinko Kikuchi"/>
     <n v="190000000"/>
-    <n v="411000000"/>
+    <x v="222"/>
   </r>
   <r>
     <s v="Pain &amp; Gain"/>
@@ -13014,7 +13471,7 @@
     <s v="Ken Jeong"/>
     <s v="Anthony Mackie"/>
     <n v="26000000"/>
-    <n v="86200000"/>
+    <x v="223"/>
   </r>
   <r>
     <s v="Pan"/>
@@ -13030,7 +13487,7 @@
     <s v="Amanda Seyfried"/>
     <s v="Levi Miller"/>
     <n v="150000000"/>
-    <n v="128400000"/>
+    <x v="224"/>
   </r>
   <r>
     <s v="Paper Towns"/>
@@ -13046,7 +13503,7 @@
     <m/>
     <m/>
     <n v="12000000"/>
-    <n v="85500000"/>
+    <x v="225"/>
   </r>
   <r>
     <s v="Paranormal Activity 4"/>
@@ -13062,7 +13519,7 @@
     <m/>
     <m/>
     <n v="5000000"/>
-    <n v="142800000"/>
+    <x v="226"/>
   </r>
   <r>
     <s v="Paranormal Activity: The Ghost Dimension"/>
@@ -13078,7 +13535,7 @@
     <m/>
     <m/>
     <n v="10000000"/>
-    <n v="78100000"/>
+    <x v="227"/>
   </r>
   <r>
     <s v="ParaNorman"/>
@@ -13094,7 +13551,7 @@
     <s v="Casey Affleck"/>
     <s v="Christopher Mintz-Plasse"/>
     <n v="60000000"/>
-    <n v="107100000"/>
+    <x v="228"/>
   </r>
   <r>
     <s v="Parental Guidance"/>
@@ -13110,7 +13567,7 @@
     <s v="Tom Everett Scott"/>
     <s v="Bailee Madison"/>
     <n v="25000000"/>
-    <n v="119800000"/>
+    <x v="229"/>
   </r>
   <r>
     <s v="Parker"/>
@@ -13126,7 +13583,7 @@
     <s v="Clifton Collins"/>
     <s v="Jr."/>
     <n v="35000000"/>
-    <n v="48500000"/>
+    <x v="230"/>
   </r>
   <r>
     <s v="Paul Blart: Mall Cop 2"/>
@@ -13142,7 +13599,7 @@
     <s v="Molly Shannon"/>
     <s v="Daniella Alonso"/>
     <n v="40000000"/>
-    <n v="107600000"/>
+    <x v="231"/>
   </r>
   <r>
     <s v="Pawn Sacrifice"/>
@@ -13158,7 +13615,7 @@
     <s v="Michael Stuhlbarg"/>
     <s v="Lily Rabe"/>
     <n v="19000000"/>
-    <n v="5400000"/>
+    <x v="232"/>
   </r>
   <r>
     <s v="Penguins of Madagascar"/>
@@ -13174,7 +13631,7 @@
     <s v="Christopher Knights"/>
     <s v="Benedict Cumberbatch"/>
     <n v="132000000"/>
-    <n v="373000000"/>
+    <x v="233"/>
   </r>
   <r>
     <s v="People Like Us"/>
@@ -13190,7 +13647,7 @@
     <s v="Olivia Wilde"/>
     <s v="Mark Duplass"/>
     <n v="16000000"/>
-    <n v="12400000"/>
+    <x v="234"/>
   </r>
   <r>
     <s v="Percy Jackson: Sea of Monsters"/>
@@ -13206,7 +13663,7 @@
     <s v="Mary Birdsong"/>
     <s v="Yvette Nicole Brown"/>
     <n v="90000000"/>
-    <n v="202200000"/>
+    <x v="235"/>
   </r>
   <r>
     <s v="Pitch Perfect"/>
@@ -13222,7 +13679,7 @@
     <s v="Adam DeVine"/>
     <s v="Alexis Knapp"/>
     <n v="17000000"/>
-    <n v="115400000"/>
+    <x v="236"/>
   </r>
   <r>
     <s v="Pitch Perfect 2"/>
@@ -13238,7 +13695,7 @@
     <s v="Brittany Snow"/>
     <s v="Skylar Astin"/>
     <n v="29000000"/>
-    <n v="287100000"/>
+    <x v="237"/>
   </r>
   <r>
     <s v="Pixels"/>
@@ -13254,7 +13711,7 @@
     <s v="Peter Dinklage"/>
     <s v="Michelle Monaghan"/>
     <n v="129000000"/>
-    <n v="244900000"/>
+    <x v="238"/>
   </r>
   <r>
     <s v="Point Break"/>
@@ -13270,7 +13727,7 @@
     <s v="Teresa Palmer"/>
     <m/>
     <n v="105000000"/>
-    <n v="133699999.99999999"/>
+    <x v="239"/>
   </r>
   <r>
     <s v="Polis Evo"/>
@@ -13286,7 +13743,7 @@
     <s v="Mimie Ernida"/>
     <s v="Wan Hanafi Su"/>
     <n v="2400000"/>
-    <n v="17300000"/>
+    <x v="240"/>
   </r>
   <r>
     <s v="Poltergeist"/>
@@ -13302,7 +13759,7 @@
     <s v="Saxon Sharbino"/>
     <s v="Kyle Catlett"/>
     <n v="35000000"/>
-    <n v="95400000"/>
+    <x v="241"/>
   </r>
   <r>
     <s v="Pompeii"/>
@@ -13318,7 +13775,7 @@
     <s v="Kiefer Sutherland"/>
     <s v="Carrie-Anne Moss"/>
     <n v="80000000"/>
-    <n v="117800000"/>
+    <x v="242"/>
   </r>
   <r>
     <s v="Popstar: Never Stop Never Stopping"/>
@@ -13334,7 +13791,7 @@
     <m/>
     <m/>
     <n v="20000000"/>
-    <n v="9500000"/>
+    <x v="243"/>
   </r>
   <r>
     <s v="Premium Rush"/>
@@ -13350,7 +13807,7 @@
     <s v="Wole Parks"/>
     <s v="Jamie Chung"/>
     <n v="35000000"/>
-    <n v="31100000"/>
+    <x v="244"/>
   </r>
   <r>
     <s v="Pride and Prejudice and Zombies"/>
@@ -13366,7 +13823,7 @@
     <s v="Lena Headey"/>
     <s v="Charles Dance"/>
     <n v="28000000"/>
-    <n v="16399999.999999998"/>
+    <x v="245"/>
   </r>
   <r>
     <s v="Prisoners"/>
@@ -13382,7 +13839,7 @@
     <s v="Melissa Leo"/>
     <s v="Viola Davis"/>
     <n v="46000000"/>
-    <n v="122100000"/>
+    <x v="246"/>
   </r>
   <r>
     <s v="Project Almanac"/>
@@ -13398,7 +13855,7 @@
     <m/>
     <m/>
     <n v="12000000"/>
-    <n v="33200000.000000004"/>
+    <x v="247"/>
   </r>
   <r>
     <s v="Project X"/>
@@ -13414,7 +13871,7 @@
     <s v="Kirby Bliss Blanton"/>
     <s v="Thomas Mann"/>
     <n v="12000000"/>
-    <n v="102700000"/>
+    <x v="248"/>
   </r>
   <r>
     <s v="Prometheus"/>
@@ -13430,7 +13887,7 @@
     <s v="Idris Elba"/>
     <s v="Guy Pearce"/>
     <n v="130000000"/>
-    <n v="403400000"/>
+    <x v="249"/>
   </r>
   <r>
     <s v="Promised Land"/>
@@ -13446,7 +13903,7 @@
     <s v="Frances McDormand"/>
     <m/>
     <n v="15000000"/>
-    <n v="8100000"/>
+    <x v="148"/>
   </r>
   <r>
     <s v="R.I.P.D."/>
@@ -13462,7 +13919,7 @@
     <s v="Stephanie Szostak"/>
     <s v="Mary-Louise Parker"/>
     <n v="130000000"/>
-    <n v="78300000"/>
+    <x v="250"/>
   </r>
   <r>
     <s v="Race"/>
@@ -13478,7 +13935,7 @@
     <s v="William Hurt"/>
     <s v="Carice van Houten"/>
     <n v="5000000"/>
-    <n v="23500000"/>
+    <x v="117"/>
   </r>
   <r>
     <s v="Raiders of the Lost Ark: The IMAX Experience"/>
@@ -13494,7 +13951,7 @@
     <s v="Paul Freeman"/>
     <s v="Alfred Molina"/>
     <n v="18000000"/>
-    <n v="389900000"/>
+    <x v="251"/>
   </r>
   <r>
     <s v="Rams"/>
@@ -13510,7 +13967,7 @@
     <m/>
     <m/>
     <n v="1750000"/>
-    <n v="1740000"/>
+    <x v="252"/>
   </r>
   <r>
     <s v="Ratchet &amp; Clank"/>
@@ -13526,7 +13983,7 @@
     <s v="Rosario Dawson"/>
     <s v="James Arnold Taylor"/>
     <n v="20000000"/>
-    <n v="12800000"/>
+    <x v="253"/>
   </r>
   <r>
     <s v="RED 2"/>
@@ -13542,7 +13999,7 @@
     <s v="Mary-Louise Parker"/>
     <s v="Catherine Zeta-Jones"/>
     <n v="84000000"/>
-    <n v="148100000"/>
+    <x v="254"/>
   </r>
   <r>
     <s v="Red Dawn"/>
@@ -13558,7 +14015,7 @@
     <s v="Adrianne Palicki"/>
     <s v="Josh Hutcherson"/>
     <n v="65000000"/>
-    <n v="48100000"/>
+    <x v="94"/>
   </r>
   <r>
     <s v="Red Tails"/>
@@ -13574,7 +14031,7 @@
     <s v="Daniela Ruah"/>
     <s v="Terrence Howard"/>
     <n v="58000000"/>
-    <n v="50400000"/>
+    <x v="255"/>
   </r>
   <r>
     <s v="Resident Evil: Retribution"/>
@@ -13590,7 +14047,7 @@
     <s v="Boris Kodjoe"/>
     <s v="Michelle Rodriguez"/>
     <n v="65000000"/>
-    <n v="240200000"/>
+    <x v="256"/>
   </r>
   <r>
     <s v="Ricki and the Flash"/>
@@ -13606,7 +14063,7 @@
     <s v="Audra McDonald"/>
     <s v="Sebastian Stan"/>
     <n v="18000000"/>
-    <n v="41300000"/>
+    <x v="257"/>
   </r>
   <r>
     <s v="Riddick"/>
@@ -13622,7 +14079,7 @@
     <s v="Dave Bautista"/>
     <s v="Matthew Nable"/>
     <n v="40000000"/>
-    <n v="100300000"/>
+    <x v="258"/>
   </r>
   <r>
     <s v="Ride Along"/>
@@ -13638,7 +14095,7 @@
     <s v="Bruce McGill"/>
     <s v="Tika Sumpter"/>
     <n v="25000000"/>
-    <n v="154500000"/>
+    <x v="259"/>
   </r>
   <r>
     <s v="Ride Along 2"/>
@@ -13654,7 +14111,7 @@
     <s v="Olivia Munn"/>
     <s v="Ken Jeong"/>
     <n v="40000000"/>
-    <n v="124200000"/>
+    <x v="32"/>
   </r>
   <r>
     <s v="Rio 2"/>
@@ -13670,7 +14127,7 @@
     <s v="Bruno Mars"/>
     <s v="Jemaine Clement"/>
     <n v="103000000"/>
-    <n v="500100000"/>
+    <x v="260"/>
   </r>
   <r>
     <s v="Rise of the Guardians"/>
@@ -13686,7 +14143,7 @@
     <s v="Isla Fisher"/>
     <s v="Jude Law"/>
     <n v="145000000"/>
-    <n v="306900000"/>
+    <x v="261"/>
   </r>
   <r>
     <s v="Risen"/>
@@ -13702,7 +14159,7 @@
     <m/>
     <m/>
     <n v="20000000"/>
-    <n v="46100000"/>
+    <x v="262"/>
   </r>
   <r>
     <s v="RoboCop"/>
@@ -13718,7 +14175,7 @@
     <s v="Samuel L. Jackson"/>
     <s v="Jackie Earle Haley"/>
     <n v="100000000"/>
-    <n v="242700000"/>
+    <x v="263"/>
   </r>
   <r>
     <s v="Robot &amp; Frank"/>
@@ -13734,7 +14191,7 @@
     <s v="Liv Tyler"/>
     <s v="Peter Sarsgaard"/>
     <n v="2500000"/>
-    <n v="4900000"/>
+    <x v="202"/>
   </r>
   <r>
     <s v="Rock of Ages"/>
@@ -13750,7 +14207,7 @@
     <s v="Alec Baldwin"/>
     <s v="Russell Brand"/>
     <n v="75000000"/>
-    <n v="59400000"/>
+    <x v="264"/>
   </r>
   <r>
     <s v="Rock the Kasbah"/>
@@ -13766,7 +14223,7 @@
     <s v="Scott Caan"/>
     <s v="Zooey Deschanel"/>
     <n v="15000000"/>
-    <n v="3400000"/>
+    <x v="265"/>
   </r>
   <r>
     <s v="Romeo and Juliet"/>
@@ -13782,7 +14239,7 @@
     <s v="Natascha McElhone"/>
     <s v="Lesley Manville"/>
     <n v="15000000"/>
-    <n v="3000000"/>
+    <x v="152"/>
   </r>
   <r>
     <s v="Room"/>
@@ -13798,7 +14255,7 @@
     <s v="Sean Bridgers"/>
     <s v="Jacob Tremblay"/>
     <n v="13000000"/>
-    <n v="36000000"/>
+    <x v="17"/>
   </r>
   <r>
     <s v="Run All Night"/>
@@ -13814,7 +14271,7 @@
     <m/>
     <m/>
     <n v="61600000"/>
-    <n v="71700000"/>
+    <x v="266"/>
   </r>
   <r>
     <s v="Runner, Runner"/>
@@ -13830,7 +14287,7 @@
     <s v="Anthony Mackie"/>
     <m/>
     <n v="30000000"/>
-    <n v="30000000"/>
+    <x v="267"/>
   </r>
   <r>
     <s v="Rush"/>
@@ -13846,7 +14303,7 @@
     <s v="Alexandra Maria Lara"/>
     <m/>
     <n v="38000000"/>
-    <n v="90200000"/>
+    <x v="268"/>
   </r>
   <r>
     <s v="Sabotage"/>
@@ -13862,7 +14319,7 @@
     <s v="Joe Manganiello"/>
     <s v="Olivia Williams"/>
     <n v="35000000"/>
-    <n v="17500000"/>
+    <x v="174"/>
   </r>
   <r>
     <s v="Safe House"/>
@@ -13878,7 +14335,7 @@
     <s v="Robert Patrick"/>
     <s v="Liam Cunningham"/>
     <n v="85000000"/>
-    <n v="208100000"/>
+    <x v="269"/>
   </r>
   <r>
     <s v="Salmon Fishing in the Yemen"/>
@@ -13894,7 +14351,7 @@
     <s v="Amr Waked"/>
     <m/>
     <n v="14400000"/>
-    <n v="34600000"/>
+    <x v="21"/>
   </r>
   <r>
     <s v="Savages"/>
@@ -13910,7 +14367,7 @@
     <s v="John Travolta"/>
     <s v="Benicio del Toro"/>
     <n v="45000000"/>
-    <n v="83000000"/>
+    <x v="270"/>
   </r>
   <r>
     <s v="Scary Movie 5"/>
@@ -13926,7 +14383,7 @@
     <s v="Charlie Sheen"/>
     <s v="Terry Crews"/>
     <n v="20000000"/>
-    <n v="78400000"/>
+    <x v="271"/>
   </r>
   <r>
     <s v="Secret in Their Eyes"/>
@@ -13942,7 +14399,7 @@
     <s v="Dean Norris"/>
     <m/>
     <n v="19500000"/>
-    <n v="32200000.000000004"/>
+    <x v="175"/>
   </r>
   <r>
     <s v="Self/less"/>
@@ -13958,7 +14415,7 @@
     <s v="Victor Garber"/>
     <s v="Matthew Goode"/>
     <n v="26000000"/>
-    <n v="30500000"/>
+    <x v="272"/>
   </r>
   <r>
     <s v="Selma"/>
@@ -13974,7 +14431,7 @@
     <s v="Carmen Ejogo"/>
     <m/>
     <n v="20000000"/>
-    <n v="66800000"/>
+    <x v="273"/>
   </r>
   <r>
     <s v="Seventh Son"/>
@@ -13990,7 +14447,7 @@
     <s v="Alicia Vikander"/>
     <s v="Kit Harington"/>
     <n v="95000000"/>
-    <n v="114200000"/>
+    <x v="274"/>
   </r>
   <r>
     <s v="Shaun the Sheep Movie"/>
@@ -14006,7 +14463,7 @@
     <m/>
     <m/>
     <n v="25000000"/>
-    <n v="106000000"/>
+    <x v="275"/>
   </r>
   <r>
     <s v="Sicario"/>
@@ -14022,7 +14479,7 @@
     <s v="Jon Bernthal"/>
     <m/>
     <n v="30000000"/>
-    <n v="84900000"/>
+    <x v="276"/>
   </r>
   <r>
     <s v="Side Effects"/>
@@ -14038,7 +14495,7 @@
     <s v="Catherine Zeta-Jones"/>
     <s v="Vinessa Shaw"/>
     <n v="30000000"/>
-    <n v="66700000"/>
+    <x v="277"/>
   </r>
   <r>
     <s v="Silent Hill: Revelation 3D"/>
@@ -14054,7 +14511,7 @@
     <s v="Kit Harington"/>
     <s v="Carrie-Anne Moss"/>
     <n v="20000000"/>
-    <n v="52300000"/>
+    <x v="278"/>
   </r>
   <r>
     <s v="Silver Linings Playbook"/>
@@ -14070,7 +14527,7 @@
     <s v="Robert De Niro"/>
     <s v="Jacki Weaver"/>
     <n v="21000000"/>
-    <n v="236400000"/>
+    <x v="279"/>
   </r>
   <r>
     <s v="Sin City: A Dame to Kill For"/>
@@ -14086,7 +14543,7 @@
     <s v="Rosario Dawson"/>
     <s v="Joseph Gordon-Levitt"/>
     <n v="65000000"/>
-    <n v="39400000"/>
+    <x v="280"/>
   </r>
   <r>
     <s v="Sinister"/>
@@ -14102,7 +14559,7 @@
     <s v="Vincent D'Onofrio"/>
     <m/>
     <n v="3000000"/>
-    <n v="77700000"/>
+    <x v="281"/>
   </r>
   <r>
     <s v="Sinister 2"/>
@@ -14118,7 +14575,7 @@
     <m/>
     <m/>
     <n v="10000000"/>
-    <n v="52900000"/>
+    <x v="282"/>
   </r>
   <r>
     <s v="Sisters"/>
@@ -14134,7 +14591,7 @@
     <s v="Maya Rudolph"/>
     <m/>
     <n v="30000000"/>
-    <n v="105000000"/>
+    <x v="283"/>
   </r>
   <r>
     <s v="Snitch"/>
@@ -14150,7 +14607,7 @@
     <s v="Barry Pepper"/>
     <m/>
     <n v="15000000"/>
-    <n v="57800000"/>
+    <x v="83"/>
   </r>
   <r>
     <s v="Snow White and the Huntsman"/>
@@ -14166,7 +14623,7 @@
     <s v="Sam Spruell"/>
     <s v="Ian McShane"/>
     <n v="170000000"/>
-    <n v="396600000"/>
+    <x v="284"/>
   </r>
   <r>
     <s v="Son of God"/>
@@ -14182,7 +14639,7 @@
     <m/>
     <m/>
     <n v="22000000"/>
-    <n v="67800000"/>
+    <x v="285"/>
   </r>
   <r>
     <s v="Son of Saul"/>
@@ -14198,7 +14655,7 @@
     <m/>
     <m/>
     <n v="1500000"/>
-    <n v="6200000"/>
+    <x v="190"/>
   </r>
   <r>
     <s v="Southpaw"/>
@@ -14214,7 +14671,7 @@
     <s v="Forest Whitaker"/>
     <s v="Victor Ortiz"/>
     <n v="30000000"/>
-    <n v="92000000"/>
+    <x v="286"/>
   </r>
   <r>
     <s v="Spotlight"/>
@@ -14230,7 +14687,7 @@
     <s v="Liev Schreiber"/>
     <s v="John Slattery"/>
     <n v="20000000"/>
-    <n v="88300000"/>
+    <x v="287"/>
   </r>
   <r>
     <s v="Spy"/>
@@ -14246,7 +14703,7 @@
     <s v="Miranda Hart"/>
     <s v="Bobby Cannavale"/>
     <n v="65000000"/>
-    <n v="235700000"/>
+    <x v="288"/>
   </r>
   <r>
     <s v="St. Vincent"/>
@@ -14262,7 +14719,7 @@
     <s v="Chris O'Dowd"/>
     <s v="Kimberly Quinn"/>
     <n v="13000000"/>
-    <n v="54800000"/>
+    <x v="289"/>
   </r>
   <r>
     <s v="Stand by Me Doraemon"/>
@@ -14278,7 +14735,7 @@
     <s v="Tomokazu Seki"/>
     <s v="Subaru Kimura"/>
     <n v="35000000"/>
-    <n v="196400000"/>
+    <x v="290"/>
   </r>
   <r>
     <s v="Star Trek Beyond"/>
@@ -14294,7 +14751,7 @@
     <s v="Karl Urban"/>
     <s v="John Cho"/>
     <n v="185000000"/>
-    <n v="243000000"/>
+    <x v="291"/>
   </r>
   <r>
     <s v="Step Up: All In"/>
@@ -14310,7 +14767,7 @@
     <s v="Adam Sevani"/>
     <s v="Mari Koda"/>
     <n v="45000000"/>
-    <n v="86200000"/>
+    <x v="223"/>
   </r>
   <r>
     <s v="Steve Jobs"/>
@@ -14326,7 +14783,7 @@
     <s v="Jeff Daniels"/>
     <s v="Katherine Waterston"/>
     <n v="30000000"/>
-    <n v="34400000"/>
+    <x v="292"/>
   </r>
   <r>
     <s v="Straight Outta Compton"/>
@@ -14342,7 +14799,7 @@
     <s v="Jason Mitchell"/>
     <s v="Aldis Hodge"/>
     <n v="50000000"/>
-    <n v="201600000"/>
+    <x v="293"/>
   </r>
   <r>
     <s v="Suffragette"/>
@@ -14358,7 +14815,7 @@
     <s v="Ben Whishaw"/>
     <s v="Brendan Gleeson"/>
     <n v="14000000"/>
-    <n v="32000000"/>
+    <x v="294"/>
   </r>
   <r>
     <s v="Suicide Squad"/>
@@ -14374,7 +14831,7 @@
     <s v="Joel Kinnaman"/>
     <s v="Viola Davis"/>
     <n v="175000000"/>
-    <n v="636700000"/>
+    <x v="295"/>
   </r>
   <r>
     <s v="Taken 2"/>
@@ -14390,7 +14847,7 @@
     <s v="Rade Sherbedgia"/>
     <s v="Luke Grimes"/>
     <n v="43000000"/>
-    <n v="376100000"/>
+    <x v="296"/>
   </r>
   <r>
     <s v="Tammy"/>
@@ -14406,7 +14863,7 @@
     <s v="Toni Collette"/>
     <s v="Sandra Oh"/>
     <n v="20000000"/>
-    <n v="100500000"/>
+    <x v="297"/>
   </r>
   <r>
     <s v="Ted"/>
@@ -14422,7 +14879,7 @@
     <s v="Giovanni Ribisi"/>
     <s v="Joel McHale"/>
     <n v="51000000"/>
-    <n v="549400000"/>
+    <x v="298"/>
   </r>
   <r>
     <s v="Ted 2"/>
@@ -14438,7 +14895,7 @@
     <s v="Amanda Seyfried"/>
     <s v="Giovanni Ribisi"/>
     <n v="68000000"/>
-    <n v="216700000"/>
+    <x v="299"/>
   </r>
   <r>
     <s v="Teenage Mutant Ninja Turtles"/>
@@ -14454,7 +14911,7 @@
     <s v="Noel Fisher"/>
     <s v="Jeremy Howard"/>
     <n v="125000000"/>
-    <n v="493300000"/>
+    <x v="300"/>
   </r>
   <r>
     <s v="Teenage Mutant Ninja Turtles: Out of the Shadows"/>
@@ -14470,7 +14927,7 @@
     <s v="Laura Linney"/>
     <s v="Brian Tee"/>
     <n v="135000000"/>
-    <n v="242500000"/>
+    <x v="301"/>
   </r>
   <r>
     <s v="Terminator Genisys"/>
@@ -14486,7 +14943,7 @@
     <s v="Jason Clarke"/>
     <s v="Jai Courtney"/>
     <n v="155000000"/>
-    <n v="440600000"/>
+    <x v="302"/>
   </r>
   <r>
     <s v="Texas Chainsaw 3D"/>
@@ -14502,7 +14959,7 @@
     <s v="Scott Eastwood"/>
     <s v="Tania Raymonde"/>
     <n v="20000000"/>
-    <n v="47200000"/>
+    <x v="303"/>
   </r>
   <r>
     <s v="That Awkward Moment"/>
@@ -14518,7 +14975,7 @@
     <s v="Imogen Poots"/>
     <s v="Jessica Lucas"/>
     <n v="8000000"/>
-    <n v="40500000"/>
+    <x v="304"/>
   </r>
   <r>
     <s v="The 33"/>
@@ -14534,7 +14991,7 @@
     <s v="James Brolin"/>
     <s v="Lou Diamond Phillips"/>
     <n v="26000000"/>
-    <n v="24900000"/>
+    <x v="305"/>
   </r>
   <r>
     <s v="The 5th Wave"/>
@@ -14550,7 +15007,7 @@
     <s v="Liev Schreiber"/>
     <s v="Maika Monroe"/>
     <n v="35000000"/>
-    <n v="110700000"/>
+    <x v="306"/>
   </r>
   <r>
     <s v="The Age of Adaline"/>
@@ -14566,7 +15023,7 @@
     <s v="Ellen Burstyn"/>
     <s v="Amanda Crew"/>
     <n v="25000000"/>
-    <n v="65700000"/>
+    <x v="307"/>
   </r>
   <r>
     <s v="The Amazing Spider-Man"/>
@@ -14582,7 +15039,7 @@
     <s v="Martin Sheen"/>
     <s v="Sally Field"/>
     <n v="230000000"/>
-    <n v="757900000"/>
+    <x v="308"/>
   </r>
   <r>
     <s v="The Angry Birds Movie"/>
@@ -14598,7 +15055,7 @@
     <s v="Bill Hader"/>
     <s v="Maya Rudolph"/>
     <n v="73000000"/>
-    <n v="346900000"/>
+    <x v="309"/>
   </r>
   <r>
     <s v="The Best Exotic Marigold Hotel ₪"/>
@@ -14614,7 +15071,7 @@
     <s v="Tom Wilkinson"/>
     <s v="Maggie Smith"/>
     <n v="10000000"/>
-    <n v="136800000"/>
+    <x v="310"/>
   </r>
   <r>
     <s v="The Big Short"/>
@@ -14630,7 +15087,7 @@
     <s v="Brad Pitt"/>
     <s v="Melissa Leo"/>
     <n v="28000000"/>
-    <n v="133300000.00000001"/>
+    <x v="311"/>
   </r>
   <r>
     <s v="The Bling Ring"/>
@@ -14646,7 +15103,7 @@
     <s v="Claire Julien"/>
     <s v="Taissa Farmiga"/>
     <n v="8000000"/>
-    <n v="19100000"/>
+    <x v="210"/>
   </r>
   <r>
     <s v="The Book of Life"/>
@@ -14662,7 +15119,7 @@
     <s v="Channing Tatum"/>
     <m/>
     <n v="50000000"/>
-    <n v="99800000"/>
+    <x v="43"/>
   </r>
   <r>
     <s v="The Boss"/>
@@ -14678,7 +15135,7 @@
     <s v="Tyler Labine"/>
     <s v="Kristen Schaal"/>
     <n v="29000000"/>
-    <n v="78600000"/>
+    <x v="312"/>
   </r>
   <r>
     <s v="The Bourne Legacy"/>
@@ -14694,7 +15151,7 @@
     <s v="Oscar Isaac"/>
     <s v="Joan Allen"/>
     <n v="125000000"/>
-    <n v="276100000"/>
+    <x v="313"/>
   </r>
   <r>
     <s v="The Boxtrolls"/>
@@ -14710,7 +15167,7 @@
     <s v="Isaac Hempstead-Wright"/>
     <s v="Jared Harris"/>
     <n v="60000000"/>
-    <n v="109300000"/>
+    <x v="314"/>
   </r>
   <r>
     <s v="The Boy"/>
@@ -14726,7 +15183,7 @@
     <s v="Diana Hardcastle"/>
     <m/>
     <n v="10000000"/>
-    <n v="64200000"/>
+    <x v="315"/>
   </r>
   <r>
     <s v="The Butler"/>
@@ -14742,7 +15199,7 @@
     <s v="Liam Neeson"/>
     <s v="John Cusack"/>
     <n v="30000000"/>
-    <n v="176600000"/>
+    <x v="316"/>
   </r>
   <r>
     <s v="The Cabin in the Woods"/>
@@ -14758,7 +15215,7 @@
     <s v="Chris Hemsworth"/>
     <s v="Kristen Connolly"/>
     <n v="30000000"/>
-    <n v="66500000"/>
+    <x v="317"/>
   </r>
   <r>
     <s v="The Call"/>
@@ -14774,7 +15231,7 @@
     <s v="Michael Eklund"/>
     <s v="Michael Imperioli"/>
     <n v="13000000"/>
-    <n v="68600000"/>
+    <x v="318"/>
   </r>
   <r>
     <s v="The Campaign"/>
@@ -14790,7 +15247,7 @@
     <s v="Katherine LaNasa"/>
     <s v="Dylan McDermott"/>
     <n v="95000000"/>
-    <n v="104900000"/>
+    <x v="319"/>
   </r>
   <r>
     <s v="The Cold Light of Day"/>
@@ -14806,7 +15263,7 @@
     <s v="Veronica Echegui"/>
     <s v="Roschoy Zem"/>
     <n v="20000000"/>
-    <n v="16900000"/>
+    <x v="320"/>
   </r>
   <r>
     <s v="The Collection"/>
@@ -14822,7 +15279,7 @@
     <m/>
     <m/>
     <n v="10000000"/>
-    <n v="8900000"/>
+    <x v="321"/>
   </r>
   <r>
     <s v="The Conjuring"/>
@@ -14838,7 +15295,7 @@
     <s v="Lili Taylor"/>
     <s v="Shannon Kook"/>
     <n v="20000000"/>
-    <n v="318000000"/>
+    <x v="322"/>
   </r>
   <r>
     <s v="The Conjuring 2"/>
@@ -14854,7 +15311,7 @@
     <m/>
     <m/>
     <n v="40000000"/>
-    <n v="319500000"/>
+    <x v="323"/>
   </r>
   <r>
     <s v="The Croods"/>
@@ -14870,7 +15327,7 @@
     <s v="Catherine Keener"/>
     <s v="Clark Duke"/>
     <n v="135000000"/>
-    <n v="587200000"/>
+    <x v="324"/>
   </r>
   <r>
     <s v="The Danish Girl"/>
@@ -14886,7 +15343,7 @@
     <s v="Ben Whishaw"/>
     <m/>
     <n v="15000000"/>
-    <n v="64200000"/>
+    <x v="315"/>
   </r>
   <r>
     <s v="The Darkness"/>
@@ -14902,7 +15359,7 @@
     <s v="Lucy Fry"/>
     <s v="Matt Walsh"/>
     <n v="4000000"/>
-    <n v="10900000"/>
+    <x v="325"/>
   </r>
   <r>
     <s v="The Devil Inside"/>
@@ -14918,7 +15375,7 @@
     <s v="Evan Helmuth"/>
     <m/>
     <n v="1000000"/>
-    <n v="101800000"/>
+    <x v="326"/>
   </r>
   <r>
     <s v="The Dictator"/>
@@ -14934,7 +15391,7 @@
     <s v="Megan Fox"/>
     <s v="John C. Reilly"/>
     <n v="65000000"/>
-    <n v="179400000"/>
+    <x v="327"/>
   </r>
   <r>
     <s v="The Divergent Series: Allegiant"/>
@@ -14950,7 +15407,7 @@
     <s v="Jeff Daniels"/>
     <s v="Ansel Elgort"/>
     <n v="110000000"/>
-    <n v="179200000"/>
+    <x v="328"/>
   </r>
   <r>
     <s v="The Divergent Series: Insurgent"/>
@@ -14966,7 +15423,7 @@
     <s v="Ansel Elgort"/>
     <s v="Naomi Watts"/>
     <n v="110000000"/>
-    <n v="297300000"/>
+    <x v="329"/>
   </r>
   <r>
     <s v="The Drop"/>
@@ -14982,7 +15439,7 @@
     <s v="Matthias Schoenaerts"/>
     <s v="John Ortiz"/>
     <n v="12600000"/>
-    <n v="18700000"/>
+    <x v="330"/>
   </r>
   <r>
     <s v="The Duff"/>
@@ -14998,7 +15455,7 @@
     <s v="Bianca A. Santos"/>
     <s v="Allison Janney"/>
     <n v="8500000"/>
-    <n v="43500000"/>
+    <x v="331"/>
   </r>
   <r>
     <s v="The East"/>
@@ -15014,7 +15471,7 @@
     <s v="Julia Ormond"/>
     <s v="Patricia Clarkson"/>
     <n v="6500000"/>
-    <n v="2400000"/>
+    <x v="332"/>
   </r>
   <r>
     <s v="The Equalizer"/>
@@ -15030,7 +15487,7 @@
     <s v="David Harbour"/>
     <s v="Bill Pullman"/>
     <n v="55000000"/>
-    <n v="192300000"/>
+    <x v="333"/>
   </r>
   <r>
     <s v="The Expendables 2"/>
@@ -15046,7 +15503,7 @@
     <s v="Terry Crews"/>
     <s v="Randy Couture"/>
     <n v="100000000"/>
-    <n v="305400000"/>
+    <x v="334"/>
   </r>
   <r>
     <s v="The Expendables 3"/>
@@ -15062,7 +15519,7 @@
     <s v="Mel Gibson"/>
     <s v="Jason Statham"/>
     <n v="90000000"/>
-    <n v="206200000"/>
+    <x v="335"/>
   </r>
   <r>
     <s v="The Family"/>
@@ -15078,7 +15535,7 @@
     <s v="Tommy Lee Jones"/>
     <s v="Vincent Pastore"/>
     <n v="30000000"/>
-    <n v="78400000"/>
+    <x v="271"/>
   </r>
   <r>
     <s v="The Fault in Our Stars"/>
@@ -15094,7 +15551,7 @@
     <m/>
     <m/>
     <n v="13000000"/>
-    <n v="307200000"/>
+    <x v="336"/>
   </r>
   <r>
     <s v="The Five-Year Engagement"/>
@@ -15110,7 +15567,7 @@
     <s v="Alison Brie"/>
     <s v="Rhys Ifans"/>
     <n v="30000000"/>
-    <n v="53900000"/>
+    <x v="337"/>
   </r>
   <r>
     <s v="The Forest"/>
@@ -15126,7 +15583,7 @@
     <m/>
     <m/>
     <n v="10000000"/>
-    <n v="37600000"/>
+    <x v="338"/>
   </r>
   <r>
     <s v="The Gift"/>
@@ -15142,7 +15599,7 @@
     <m/>
     <m/>
     <n v="5000000"/>
-    <n v="59000000"/>
+    <x v="339"/>
   </r>
   <r>
     <s v="The Giver"/>
@@ -15158,7 +15615,7 @@
     <s v="Alexander Skarsgård"/>
     <s v="Katie Holmes"/>
     <n v="25000000"/>
-    <n v="67000000"/>
+    <x v="340"/>
   </r>
   <r>
     <s v="The Grand Budapest Hotel"/>
@@ -15174,7 +15631,7 @@
     <s v="Mathieu Amalric"/>
     <s v="Adrien Brody"/>
     <n v="23000000"/>
-    <n v="174800000"/>
+    <x v="341"/>
   </r>
   <r>
     <s v="The Great Gatsby"/>
@@ -15190,7 +15647,7 @@
     <s v="Carey Mulligan"/>
     <s v="Isla Fisher"/>
     <n v="105000000"/>
-    <n v="351000000"/>
+    <x v="342"/>
   </r>
   <r>
     <s v="The Grey"/>
@@ -15206,7 +15663,7 @@
     <s v="Dallas Roberts"/>
     <m/>
     <n v="25000000"/>
-    <n v="77300000"/>
+    <x v="343"/>
   </r>
   <r>
     <s v="The Gunman"/>
@@ -15222,7 +15679,7 @@
     <s v="Idris Elba"/>
     <s v="Mark Rylance"/>
     <n v="40000000"/>
-    <n v="24200000"/>
+    <x v="344"/>
   </r>
   <r>
     <s v="The Hangover Part III"/>
@@ -15238,7 +15695,7 @@
     <s v="Justin Bartha"/>
     <s v="Ken Jeong"/>
     <n v="103000000"/>
-    <n v="362000000"/>
+    <x v="345"/>
   </r>
   <r>
     <s v="The Hateful Eight"/>
@@ -15254,7 +15711,7 @@
     <s v="Walton Goggins"/>
     <s v="Tim Roth"/>
     <n v="44000000"/>
-    <n v="155800000"/>
+    <x v="346"/>
   </r>
   <r>
     <s v="The Heat"/>
@@ -15270,7 +15727,7 @@
     <s v="Tony Hale"/>
     <s v="Demian Bichir"/>
     <n v="43000000"/>
-    <n v="229900000"/>
+    <x v="347"/>
   </r>
   <r>
     <s v="The Hobbit: The Battle of the Five Armies"/>
@@ -15286,7 +15743,7 @@
     <s v="Evangeline Lilly"/>
     <s v="Luke Evans"/>
     <n v="250000000"/>
-    <n v="956000000"/>
+    <x v="348"/>
   </r>
   <r>
     <s v="The Host"/>
@@ -15302,7 +15759,7 @@
     <s v="Diane Kruger"/>
     <s v="William Hurt"/>
     <n v="40000000"/>
-    <n v="63300000"/>
+    <x v="349"/>
   </r>
   <r>
     <s v="The Hundred-Foot Journey"/>
@@ -15318,7 +15775,7 @@
     <m/>
     <m/>
     <n v="22000000"/>
-    <n v="88900000"/>
+    <x v="204"/>
   </r>
   <r>
     <s v="The Hunger Games"/>
@@ -15334,7 +15791,7 @@
     <s v="Wes Bentley"/>
     <s v="Elizabeth Banks"/>
     <n v="78000000"/>
-    <n v="694400000"/>
+    <x v="350"/>
   </r>
   <r>
     <s v="The Hunger Games: Mockingjay – Part 1"/>
@@ -15350,7 +15807,7 @@
     <s v="Julianne Moore"/>
     <s v="Donald Sutherland"/>
     <n v="125000000"/>
-    <n v="755400000"/>
+    <x v="351"/>
   </r>
   <r>
     <s v="The Hunger Games: Mockingjay – Part 2"/>
@@ -15366,7 +15823,7 @@
     <s v="Woody Harrelson"/>
     <s v="Elizabeth Banks"/>
     <n v="160000000"/>
-    <n v="653400000"/>
+    <x v="352"/>
   </r>
   <r>
     <s v="The Huntsman: Winter's War"/>
@@ -15382,7 +15839,7 @@
     <s v="Jessica Chastain"/>
     <s v="Nick Frost"/>
     <n v="115000000"/>
-    <n v="164600000"/>
+    <x v="353"/>
   </r>
   <r>
     <s v="The Iceman"/>
@@ -15398,7 +15855,7 @@
     <s v="Chris Evans"/>
     <s v="Ray Liotta"/>
     <n v="10000000"/>
-    <n v="4400000"/>
+    <x v="35"/>
   </r>
   <r>
     <s v="The Identical"/>
@@ -15414,7 +15871,7 @@
     <s v="Brian Geraghty"/>
     <s v="Joe Pantoliano"/>
     <n v="16000000"/>
-    <n v="2800000"/>
+    <x v="53"/>
   </r>
   <r>
     <s v="The Imitation Game"/>
@@ -15430,7 +15887,7 @@
     <s v="Rory Kinnear"/>
     <s v="Allen Leech"/>
     <n v="14000000"/>
-    <n v="233600000"/>
+    <x v="354"/>
   </r>
   <r>
     <s v="The Impossible"/>
@@ -15446,7 +15903,7 @@
     <m/>
     <m/>
     <n v="45000000"/>
-    <n v="180300000"/>
+    <x v="355"/>
   </r>
   <r>
     <s v="The Incredible Burt Wonderstone"/>
@@ -15462,7 +15919,7 @@
     <s v="Olivia Wilde"/>
     <s v="James Gandolfini"/>
     <n v="34000000"/>
-    <n v="27400000"/>
+    <x v="149"/>
   </r>
   <r>
     <s v="The Infiltrator"/>
@@ -15478,7 +15935,7 @@
     <s v="John Leguizamo"/>
     <s v="Amy Ryan"/>
     <n v="47500000"/>
-    <n v="15200000"/>
+    <x v="356"/>
   </r>
   <r>
     <s v="The Intern"/>
@@ -15494,7 +15951,7 @@
     <s v="Adam DeVine"/>
     <s v="Anders Holm"/>
     <n v="44000000"/>
-    <n v="194600000"/>
+    <x v="357"/>
   </r>
   <r>
     <s v="The Internship"/>
@@ -15510,7 +15967,7 @@
     <s v="Rose Byrne"/>
     <s v="Jessica Szohr"/>
     <n v="58000000"/>
-    <n v="93000000"/>
+    <x v="358"/>
   </r>
   <r>
     <s v="The Interview"/>
@@ -15526,7 +15983,7 @@
     <m/>
     <m/>
     <n v="44000000"/>
-    <n v="11300000"/>
+    <x v="104"/>
   </r>
   <r>
     <s v="The Judge"/>
@@ -15542,7 +15999,7 @@
     <s v="Vera Farmiga"/>
     <s v="Billy Bob Thornton"/>
     <n v="50000000"/>
-    <n v="84400000"/>
+    <x v="359"/>
   </r>
   <r>
     <s v="The Lady in the Van"/>
@@ -15558,7 +16015,7 @@
     <s v="Frances de la Tour"/>
     <s v="Roger Allam"/>
     <n v="6000000"/>
-    <n v="41400000"/>
+    <x v="40"/>
   </r>
   <r>
     <s v="The Last Exorcism Part II"/>
@@ -15574,7 +16031,7 @@
     <s v="Louis Herthum"/>
     <s v="Judd Lormand"/>
     <n v="5000000"/>
-    <n v="15100000"/>
+    <x v="39"/>
   </r>
   <r>
     <s v="The Last Stand"/>
@@ -15590,7 +16047,7 @@
     <s v="Jaimie Alexander"/>
     <s v="Rodrigo Santoro"/>
     <n v="45000000"/>
-    <n v="48300000"/>
+    <x v="360"/>
   </r>
   <r>
     <s v="The Last Witch Hunter"/>
@@ -15606,7 +16063,7 @@
     <s v="Elijah Wood"/>
     <m/>
     <n v="90000000"/>
-    <n v="140400000"/>
+    <x v="361"/>
   </r>
   <r>
     <s v="The Lazarus Effect"/>
@@ -15622,7 +16079,7 @@
     <m/>
     <m/>
     <n v="3300000"/>
-    <n v="38400000"/>
+    <x v="362"/>
   </r>
   <r>
     <s v="The Legend of Hercules"/>
@@ -15638,7 +16095,7 @@
     <s v="Roxanne McKee"/>
     <s v="Liam Garrigan"/>
     <n v="70000000"/>
-    <n v="61300000"/>
+    <x v="363"/>
   </r>
   <r>
     <s v="The Legend of Tarzan"/>
@@ -15654,7 +16111,7 @@
     <s v="Samuel L. Jackson"/>
     <s v="Djimon Hounsou"/>
     <n v="180000000"/>
-    <n v="352700000"/>
+    <x v="364"/>
   </r>
   <r>
     <s v="The Lego Movie"/>
@@ -15670,7 +16127,7 @@
     <s v="Will Arnett"/>
     <s v="Nick Offerman"/>
     <n v="60000000"/>
-    <n v="469200000"/>
+    <x v="365"/>
   </r>
   <r>
     <s v="The Letters"/>
@@ -15686,7 +16143,7 @@
     <s v="Priya Darshini"/>
     <m/>
     <n v="1000000"/>
-    <n v="1600000"/>
+    <x v="168"/>
   </r>
   <r>
     <s v="The Lucky One"/>
@@ -15702,7 +16159,7 @@
     <s v="Riley Thomas Stewart"/>
     <s v="Adam Lefevre"/>
     <n v="25000000"/>
-    <n v="99400000"/>
+    <x v="366"/>
   </r>
   <r>
     <s v="The Man from U.N.C.L.E."/>
@@ -15718,7 +16175,7 @@
     <s v="Alicia Vikander"/>
     <s v="Hugh Grant"/>
     <n v="75000000"/>
-    <n v="109800000"/>
+    <x v="367"/>
   </r>
   <r>
     <s v="The Man with the Iron Fists"/>
@@ -15734,7 +16191,7 @@
     <s v="RZA"/>
     <s v="Byron Mann"/>
     <n v="20000000"/>
-    <n v="20300000"/>
+    <x v="368"/>
   </r>
   <r>
     <s v="The Martian"/>
@@ -15750,7 +16207,7 @@
     <s v="Sean Bean"/>
     <s v="Jessica Chastain"/>
     <n v="108000000"/>
-    <n v="630200000"/>
+    <x v="369"/>
   </r>
   <r>
     <s v="The Master"/>
@@ -15766,7 +16223,7 @@
     <s v="David Warshofsky"/>
     <s v="Amy Adams"/>
     <n v="32000000"/>
-    <n v="28300000"/>
+    <x v="84"/>
   </r>
   <r>
     <s v="The Maze Runner"/>
@@ -15782,7 +16239,7 @@
     <s v="Aml Ameen"/>
     <s v="Kaya Scodelario"/>
     <n v="34000000"/>
-    <n v="348300000"/>
+    <x v="370"/>
   </r>
   <r>
     <s v="The Mermaid"/>
@@ -15798,7 +16255,7 @@
     <s v="Zhang Yuqi"/>
     <s v="Kris Wu"/>
     <n v="60720000"/>
-    <n v="553800000"/>
+    <x v="371"/>
   </r>
   <r>
     <s v="The Monuments Men"/>
@@ -15814,7 +16271,7 @@
     <s v="John Goodman"/>
     <s v="Jean Dujardin"/>
     <n v="70000000"/>
-    <n v="155000000"/>
+    <x v="372"/>
   </r>
   <r>
     <s v="The Mortal Instruments: City of Bones"/>
@@ -15830,7 +16287,7 @@
     <s v="Jemima West"/>
     <s v="Kevin Durand"/>
     <n v="60000000"/>
-    <n v="90600000"/>
+    <x v="373"/>
   </r>
   <r>
     <s v="The Night Before"/>
@@ -15846,7 +16303,7 @@
     <m/>
     <m/>
     <n v="25000000"/>
-    <n v="52400000"/>
+    <x v="374"/>
   </r>
   <r>
     <s v="The November Man"/>
@@ -15862,7 +16319,7 @@
     <s v="Bill Smitrovich"/>
     <s v="Will Patton"/>
     <n v="15000000"/>
-    <n v="34800000"/>
+    <x v="375"/>
   </r>
   <r>
     <s v="The Nut Job"/>
@@ -15878,7 +16335,7 @@
     <s v="Brendan Fraser"/>
     <s v="Gabriel Iglesias"/>
     <n v="42800000"/>
-    <n v="120900000"/>
+    <x v="376"/>
   </r>
   <r>
     <s v="The Oogieloves in the Big Balloon Adventure"/>
@@ -15894,7 +16351,7 @@
     <s v="Chazz Palminteri"/>
     <s v="Cary Elwes"/>
     <n v="20000000"/>
-    <n v="1100000"/>
+    <x v="377"/>
   </r>
   <r>
     <s v="The Other Woman"/>
@@ -15910,7 +16367,7 @@
     <s v="Nikolaj Coster-Waldau"/>
     <s v="Taylor Kinney"/>
     <n v="40000000"/>
-    <n v="196700000"/>
+    <x v="378"/>
   </r>
   <r>
     <s v="The Peanuts Movie"/>
@@ -15926,7 +16383,7 @@
     <s v="AJ Teece"/>
     <s v="Noah Johnston"/>
     <n v="99000000"/>
-    <n v="246200000"/>
+    <x v="379"/>
   </r>
   <r>
     <s v="The Perfect Guy"/>
@@ -15942,7 +16399,7 @@
     <m/>
     <m/>
     <n v="18000000"/>
-    <n v="60300000"/>
+    <x v="380"/>
   </r>
   <r>
     <s v="The Perfect Match"/>
@@ -15958,7 +16415,7 @@
     <s v="Dascha Polanco"/>
     <s v="Robert Christopher Riley"/>
     <n v="5000000"/>
-    <n v="10400000"/>
+    <x v="381"/>
   </r>
   <r>
     <s v="The Perks of Being a Wallflower"/>
@@ -15974,7 +16431,7 @@
     <s v="Nina Dobrev"/>
     <s v="Johnny Simmons"/>
     <n v="13000000"/>
-    <n v="33400000"/>
+    <x v="112"/>
   </r>
   <r>
     <s v="The Pirates! Band of Misfits"/>
@@ -15990,7 +16447,7 @@
     <s v="Imelda Staunton"/>
     <s v="David Tennant"/>
     <n v="55000000"/>
-    <n v="123000000"/>
+    <x v="382"/>
   </r>
   <r>
     <s v="The Place Beyond the Pines"/>
@@ -16006,7 +16463,7 @@
     <s v="Eva Mendes"/>
     <s v="Ray Liotta"/>
     <n v="15000000"/>
-    <n v="47000000"/>
+    <x v="198"/>
   </r>
   <r>
     <s v="The Possession"/>
@@ -16022,7 +16479,7 @@
     <m/>
     <m/>
     <n v="14000000"/>
-    <n v="78500000"/>
+    <x v="383"/>
   </r>
   <r>
     <s v="The Purge"/>
@@ -16038,7 +16495,7 @@
     <s v="Tony Oller"/>
     <s v="Edwin Hodge"/>
     <n v="3000000"/>
-    <n v="89300000"/>
+    <x v="384"/>
   </r>
   <r>
     <s v="The Purge: Election Year"/>
@@ -16054,7 +16511,7 @@
     <s v="Kyle Secor"/>
     <s v="Joseph Julian Soria"/>
     <n v="10000000"/>
-    <n v="105600000"/>
+    <x v="385"/>
   </r>
   <r>
     <s v="The Raid 2"/>
@@ -16070,7 +16527,7 @@
     <s v="Julie Estelle"/>
     <s v="Alex Abbad"/>
     <n v="4500000"/>
-    <n v="6600000"/>
+    <x v="386"/>
   </r>
   <r>
     <s v="The Raid: Redemption ₪"/>
@@ -16086,7 +16543,7 @@
     <s v="Yayan Ruhian"/>
     <s v="Ray Sahetapy"/>
     <n v="1100000"/>
-    <n v="9140000"/>
+    <x v="387"/>
   </r>
   <r>
     <s v="The Raven"/>
@@ -16102,7 +16559,7 @@
     <s v="Brendan Gleeson"/>
     <s v="Oliver Jackson-Cohen"/>
     <n v="26000000"/>
-    <n v="29700000"/>
+    <x v="388"/>
   </r>
   <r>
     <s v="The Revenant"/>
@@ -16118,7 +16575,7 @@
     <s v="Will Poulter"/>
     <m/>
     <n v="135000000"/>
-    <n v="533000000"/>
+    <x v="389"/>
   </r>
   <r>
     <s v="The Second Best Exotic Marigold Hotel"/>
@@ -16134,7 +16591,7 @@
     <s v="Richard Gere"/>
     <s v="Celia Imrie"/>
     <n v="10000000"/>
-    <n v="86000000"/>
+    <x v="158"/>
   </r>
   <r>
     <s v="The Second Mother"/>
@@ -16150,7 +16607,7 @@
     <m/>
     <m/>
     <n v="4000000"/>
-    <n v="6200000"/>
+    <x v="190"/>
   </r>
   <r>
     <s v="The Secret Life of Pets"/>
@@ -16166,7 +16623,7 @@
     <s v="Albert Brooks"/>
     <s v="Hannibal Buress"/>
     <n v="75000000"/>
-    <n v="724900000"/>
+    <x v="390"/>
   </r>
   <r>
     <s v="The Secret World of Arrietty"/>
@@ -16182,7 +16639,7 @@
     <s v="Bridgit Mendler"/>
     <s v="David Henrie"/>
     <n v="23000000"/>
-    <n v="145600000"/>
+    <x v="391"/>
   </r>
   <r>
     <s v="The Shallows"/>
@@ -16198,7 +16655,7 @@
     <m/>
     <m/>
     <n v="17000000"/>
-    <n v="93200000"/>
+    <x v="392"/>
   </r>
   <r>
     <s v="The Signal"/>
@@ -16214,7 +16671,7 @@
     <s v="Laurence Fishburne"/>
     <m/>
     <n v="4000000"/>
-    <n v="2420000"/>
+    <x v="393"/>
   </r>
   <r>
     <s v="The Single Moms Club"/>
@@ -16230,7 +16687,7 @@
     <s v="Zulay Henao"/>
     <s v="Cocoa Brown"/>
     <n v="8000000"/>
-    <n v="16300000"/>
+    <x v="394"/>
   </r>
   <r>
     <s v="The Smurfs 2"/>
@@ -16246,7 +16703,7 @@
     <s v="Tim Gunn"/>
     <s v="Brendan Gleeson"/>
     <n v="105000000"/>
-    <n v="347500000"/>
+    <x v="395"/>
   </r>
   <r>
     <s v="The Spectacular Now"/>
@@ -16262,7 +16719,7 @@
     <s v="Brie Larson"/>
     <s v="Dayo Okeniyi"/>
     <n v="2500000"/>
-    <n v="6900000"/>
+    <x v="396"/>
   </r>
   <r>
     <s v="The SpongeBob Movie: Sponge Out of Water"/>
@@ -16278,7 +16735,7 @@
     <s v="Antonio Banderas"/>
     <s v="Tom Kenny"/>
     <n v="74000000"/>
-    <n v="323400000"/>
+    <x v="397"/>
   </r>
   <r>
     <s v="The Sweet Escape"/>
@@ -16294,7 +16751,7 @@
     <s v="Vimala Pons"/>
     <m/>
     <n v="3800000"/>
-    <n v="3300000"/>
+    <x v="51"/>
   </r>
   <r>
     <s v="The Theory of Everything"/>
@@ -16310,7 +16767,7 @@
     <m/>
     <m/>
     <n v="15000000"/>
-    <n v="123700000"/>
+    <x v="398"/>
   </r>
   <r>
     <s v="The Three Stooges"/>
@@ -16326,7 +16783,7 @@
     <s v="Jane Lynch"/>
     <s v="Larry David"/>
     <n v="30000000"/>
-    <n v="54800000"/>
+    <x v="289"/>
   </r>
   <r>
     <s v="The Transporter Refueled"/>
@@ -16342,7 +16799,7 @@
     <s v="Gabriella Wright"/>
     <m/>
     <n v="25000000"/>
-    <n v="72600000"/>
+    <x v="399"/>
   </r>
   <r>
     <s v="The Twilight Saga: Breaking Dawn – Part 2"/>
@@ -16358,7 +16815,7 @@
     <s v="Mackenzie Foy"/>
     <s v="Billy Burke"/>
     <n v="120000000"/>
-    <n v="829700000"/>
+    <x v="400"/>
   </r>
   <r>
     <s v="The Vatican Tapes"/>
@@ -16374,7 +16831,7 @@
     <s v="Dougray Scott"/>
     <s v="John Patrick Amedori"/>
     <n v="13000000"/>
-    <n v="13500000"/>
+    <x v="401"/>
   </r>
   <r>
     <s v="The Visit"/>
@@ -16390,7 +16847,7 @@
     <s v="Peter McRobbie"/>
     <s v="Olivia DeJonge"/>
     <n v="5000000"/>
-    <n v="98500000"/>
+    <x v="402"/>
   </r>
   <r>
     <s v="The Walk"/>
@@ -16406,7 +16863,7 @@
     <s v="Charlotte Le Bon"/>
     <m/>
     <n v="45000000"/>
-    <n v="61200000"/>
+    <x v="403"/>
   </r>
   <r>
     <s v="The Watch"/>
@@ -16422,7 +16879,7 @@
     <s v="Jonah Hill"/>
     <s v="Richard Ayoade"/>
     <n v="68000000"/>
-    <n v="68300000"/>
+    <x v="197"/>
   </r>
   <r>
     <s v="The Water Diviner"/>
@@ -16438,7 +16895,7 @@
     <m/>
     <m/>
     <n v="22500000"/>
-    <n v="30800000"/>
+    <x v="404"/>
   </r>
   <r>
     <s v="The Way, Way Back"/>
@@ -16454,7 +16911,7 @@
     <s v="AnnaSophia Robb"/>
     <s v="Sam Rockwell"/>
     <n v="5000000"/>
-    <n v="5000000"/>
+    <x v="31"/>
   </r>
   <r>
     <s v="The Wedding Ringer"/>
@@ -16470,7 +16927,7 @@
     <s v="Olivia Thirlby"/>
     <s v="Alan Ritchson"/>
     <n v="23000000"/>
-    <n v="79800000"/>
+    <x v="405"/>
   </r>
   <r>
     <s v="The Witch"/>
@@ -16486,7 +16943,7 @@
     <m/>
     <m/>
     <n v="3000000"/>
-    <n v="40400000"/>
+    <x v="406"/>
   </r>
   <r>
     <s v="The Wolverine"/>
@@ -16502,7 +16959,7 @@
     <s v="Hal Yamanouchi"/>
     <s v="Tao Okamoto"/>
     <n v="120000000"/>
-    <n v="414800000"/>
+    <x v="407"/>
   </r>
   <r>
     <s v="The Woman in Black"/>
@@ -16518,7 +16975,7 @@
     <s v="Liz White"/>
     <s v="Alisa Khazanova"/>
     <n v="15000000"/>
-    <n v="128500000"/>
+    <x v="408"/>
   </r>
   <r>
     <s v="The Woman in Black: Angel of Death"/>
@@ -16534,7 +16991,7 @@
     <s v="Adrian Rawlins"/>
     <s v="Oaklee Pendergast"/>
     <n v="15000000"/>
-    <n v="48900000"/>
+    <x v="409"/>
   </r>
   <r>
     <s v="The World's End"/>
@@ -16550,7 +17007,7 @@
     <s v="Martin Freeman"/>
     <s v="Eddie Marsan"/>
     <n v="20000000"/>
-    <n v="46100000"/>
+    <x v="262"/>
   </r>
   <r>
     <s v="The Young Messiah"/>
@@ -16566,7 +17023,7 @@
     <m/>
     <m/>
     <n v="18500000"/>
-    <n v="7200000"/>
+    <x v="410"/>
   </r>
   <r>
     <s v="Think Like a Man"/>
@@ -16582,7 +17039,7 @@
     <s v="Jerry Ferrara"/>
     <s v="Meagan Good"/>
     <n v="12000000"/>
-    <n v="96100000"/>
+    <x v="411"/>
   </r>
   <r>
     <s v="This Is the End"/>
@@ -16598,7 +17055,7 @@
     <s v="Craig Robinson"/>
     <s v="Danny McBride"/>
     <n v="32000000"/>
-    <n v="126000000"/>
+    <x v="412"/>
   </r>
   <r>
     <s v="This Is Where I Leave You"/>
@@ -16614,7 +17071,7 @@
     <s v="Timothy Olyphant"/>
     <s v="Corey Stoll"/>
     <n v="19800000"/>
-    <n v="41300000"/>
+    <x v="257"/>
   </r>
   <r>
     <s v="This Means War"/>
@@ -16630,7 +17087,7 @@
     <s v="Chelsea Handler"/>
     <s v="Til Schweiger"/>
     <n v="65000000"/>
-    <n v="156500000"/>
+    <x v="413"/>
   </r>
   <r>
     <s v="Top Five"/>
@@ -16646,7 +17103,7 @@
     <s v="Rachel Feinstein"/>
     <s v="Dan Naturman"/>
     <n v="12000000"/>
-    <n v="26100000"/>
+    <x v="414"/>
   </r>
   <r>
     <s v="Top Gun 3D"/>
@@ -16662,7 +17119,7 @@
     <s v="James Tolkan"/>
     <s v="Tom Skerritt"/>
     <n v="15000000"/>
-    <n v="356800000"/>
+    <x v="415"/>
   </r>
   <r>
     <s v="Total Recall"/>
@@ -16678,7 +17135,7 @@
     <s v="Kate Beckinsale"/>
     <s v="Bill Nighy"/>
     <n v="125000000"/>
-    <n v="198500000"/>
+    <x v="416"/>
   </r>
   <r>
     <s v="Trance"/>
@@ -16694,7 +17151,7 @@
     <s v="Tuppence Middleton"/>
     <s v="Lee Nicholas Harris"/>
     <n v="20000000"/>
-    <n v="24300000"/>
+    <x v="417"/>
   </r>
   <r>
     <s v="Transcendence"/>
@@ -16710,7 +17167,7 @@
     <s v="Kate Mara"/>
     <s v="Morgan Freeman"/>
     <n v="100000000"/>
-    <n v="103000000"/>
+    <x v="418"/>
   </r>
   <r>
     <s v="Triple 9"/>
@@ -16726,7 +17183,7 @@
     <s v="Anthony Mackie"/>
     <s v="Teresa Palmer"/>
     <n v="20000000"/>
-    <n v="23400000"/>
+    <x v="419"/>
   </r>
   <r>
     <s v="Trouble with the Curve"/>
@@ -16742,7 +17199,7 @@
     <s v="Justin Timberlake"/>
     <s v="John Goodman"/>
     <n v="60000000"/>
-    <n v="49000000"/>
+    <x v="420"/>
   </r>
   <r>
     <s v="Trumbo"/>
@@ -16758,7 +17215,7 @@
     <s v="John Goodman"/>
     <s v="Elle Fanning"/>
     <n v="15000000"/>
-    <n v="8199999.9999999991"/>
+    <x v="70"/>
   </r>
   <r>
     <s v="Truth"/>
@@ -16774,7 +17231,7 @@
     <s v="Topher Grace"/>
     <s v="Elisabeth Moss"/>
     <n v="9600000"/>
-    <n v="5400000"/>
+    <x v="232"/>
   </r>
   <r>
     <s v="Turbo"/>
@@ -16790,7 +17247,7 @@
     <s v="Luis Guzmán"/>
     <s v="Bill Hader"/>
     <n v="127000000"/>
-    <n v="282600000"/>
+    <x v="421"/>
   </r>
   <r>
     <s v="Tusk"/>
@@ -16806,7 +17263,7 @@
     <s v="Génesis Rodríguez"/>
     <s v="Johnny Depp"/>
     <n v="3000000"/>
-    <n v="1900000"/>
+    <x v="422"/>
   </r>
   <r>
     <s v="Unbroken"/>
@@ -16822,7 +17279,7 @@
     <s v="Garrett Hedlund"/>
     <s v="Jai Courtney"/>
     <n v="65000000"/>
-    <n v="163400000"/>
+    <x v="423"/>
   </r>
   <r>
     <s v="Unfinished Business"/>
@@ -16838,7 +17295,7 @@
     <s v="Sienna Miller"/>
     <s v="Nick Frost"/>
     <n v="35000000"/>
-    <n v="14400000"/>
+    <x v="424"/>
   </r>
   <r>
     <s v="Unfriended"/>
@@ -16854,7 +17311,7 @@
     <s v="Will Peltz"/>
     <m/>
     <n v="1000000"/>
-    <n v="64099999.999999993"/>
+    <x v="425"/>
   </r>
   <r>
     <s v="Vacation"/>
@@ -16870,7 +17327,7 @@
     <s v="Chris Hemsworth"/>
     <s v="Charlie Day"/>
     <n v="31000000"/>
-    <n v="104900000"/>
+    <x v="319"/>
   </r>
   <r>
     <s v="Vampire Academy"/>
@@ -16886,7 +17343,7 @@
     <m/>
     <m/>
     <n v="30000000"/>
-    <n v="15400000"/>
+    <x v="426"/>
   </r>
   <r>
     <s v="Veronica Mars"/>
@@ -16902,7 +17359,7 @@
     <s v="Ryan Hansen"/>
     <s v="Francis Capra"/>
     <n v="6000000"/>
-    <n v="3500000"/>
+    <x v="427"/>
   </r>
   <r>
     <s v="Victor Frankenstein"/>
@@ -16918,7 +17375,7 @@
     <s v="Andrew Scott"/>
     <m/>
     <n v="40000000"/>
-    <n v="34200000"/>
+    <x v="428"/>
   </r>
   <r>
     <s v="Wanderlust"/>
@@ -16934,7 +17391,7 @@
     <s v="Justin Theroux"/>
     <s v="Ken Marino"/>
     <n v="35000000"/>
-    <n v="24200000"/>
+    <x v="344"/>
   </r>
   <r>
     <s v="War Dogs"/>
@@ -16950,7 +17407,7 @@
     <s v="J. B. Blanc"/>
     <m/>
     <n v="40000000"/>
-    <n v="42700000"/>
+    <x v="429"/>
   </r>
   <r>
     <s v="War Room"/>
@@ -16966,7 +17423,7 @@
     <s v="Beth Moore"/>
     <s v="Karen Abercrombie"/>
     <n v="3000000"/>
-    <n v="73700000"/>
+    <x v="430"/>
   </r>
   <r>
     <s v="Warcraft"/>
@@ -16982,7 +17439,7 @@
     <s v="Toby Kebbell"/>
     <s v="Dominic Cooper"/>
     <n v="160000000"/>
-    <n v="433500000"/>
+    <x v="431"/>
   </r>
   <r>
     <s v="Warm Bodies"/>
@@ -16998,7 +17455,7 @@
     <s v="John Malkovich"/>
     <s v="Analeigh Tipton"/>
     <n v="35000000"/>
-    <n v="117000000"/>
+    <x v="432"/>
   </r>
   <r>
     <s v="What Maisie Knew"/>
@@ -17014,7 +17471,7 @@
     <s v="Joanna Vanderham"/>
     <s v="Onata Aprile"/>
     <n v="5000000"/>
-    <n v="2700000"/>
+    <x v="433"/>
   </r>
   <r>
     <s v="What to Expect When You're Expecting"/>
@@ -17030,7 +17487,7 @@
     <s v="Elizabeth Banks"/>
     <s v="Anna Kendrick"/>
     <n v="40000000"/>
-    <n v="84400000"/>
+    <x v="359"/>
   </r>
   <r>
     <s v="When the Game Stands Tall"/>
@@ -17046,7 +17503,7 @@
     <s v="Alexander Ludwig"/>
     <m/>
     <n v="15000000"/>
-    <n v="30100000"/>
+    <x v="434"/>
   </r>
   <r>
     <s v="Whiplash"/>
@@ -17062,7 +17519,7 @@
     <s v="Melissa Benoist"/>
     <m/>
     <n v="3300000"/>
-    <n v="49000000"/>
+    <x v="420"/>
   </r>
   <r>
     <s v="Whiskey Tango Foxtrot"/>
@@ -17078,7 +17535,7 @@
     <s v="Billy Bob Thornton"/>
     <s v="Alfred Molina"/>
     <n v="35000000"/>
-    <n v="24900000"/>
+    <x v="305"/>
   </r>
   <r>
     <s v="White House Down"/>
@@ -17094,7 +17551,7 @@
     <s v="James Woods"/>
     <s v="Richard Jenkins"/>
     <n v="150000000"/>
-    <n v="205000000"/>
+    <x v="435"/>
   </r>
   <r>
     <s v="Wild"/>
@@ -17110,7 +17567,7 @@
     <s v="Charles Baker"/>
     <m/>
     <n v="15000000"/>
-    <n v="52500000"/>
+    <x v="436"/>
   </r>
   <r>
     <s v="Winter's Tale"/>
@@ -17126,7 +17583,7 @@
     <s v="Jennifer Connelly"/>
     <s v="Will Smith"/>
     <n v="60000000"/>
-    <n v="31100000"/>
+    <x v="244"/>
   </r>
   <r>
     <s v="Wish I Was Here"/>
@@ -17142,7 +17599,7 @@
     <s v="Mandy Patinkin"/>
     <s v="Ashley Greene"/>
     <n v="6000000"/>
-    <n v="5500000"/>
+    <x v="437"/>
   </r>
   <r>
     <s v="Woman in Gold"/>
@@ -17158,7 +17615,7 @@
     <s v="Katie Holmes"/>
     <s v="Tatiana Maslany"/>
     <n v="11000000"/>
-    <n v="61600000"/>
+    <x v="438"/>
   </r>
   <r>
     <s v="Won't Back Down"/>
@@ -17174,7 +17631,7 @@
     <s v="Ving Rhames"/>
     <s v="Rosie Perez"/>
     <n v="19000000"/>
-    <n v="5400000"/>
+    <x v="232"/>
   </r>
   <r>
     <s v="Woodlawn"/>
@@ -17190,7 +17647,7 @@
     <s v="Sherri Shepherd"/>
     <s v="Jon Voight"/>
     <n v="13000000"/>
-    <n v="14400000"/>
+    <x v="424"/>
   </r>
   <r>
     <s v="World War Z"/>
@@ -17206,7 +17663,7 @@
     <s v="Daniella Kertesz"/>
     <s v="Matthew Fox"/>
     <n v="190000000"/>
-    <n v="540000000"/>
+    <x v="439"/>
   </r>
   <r>
     <s v="Wrath of the Titans"/>
@@ -17222,7 +17679,7 @@
     <s v="Edgar Ramirez"/>
     <s v="Rosamund Pike"/>
     <n v="150000000"/>
-    <n v="305300000"/>
+    <x v="440"/>
   </r>
   <r>
     <s v="X-Men: Apocalypse"/>
@@ -17238,7 +17695,7 @@
     <s v="Oscar Isaac"/>
     <s v="Nicholas Hoult"/>
     <n v="178000000"/>
-    <n v="544600000"/>
+    <x v="441"/>
   </r>
   <r>
     <s v="X-Men: Days of Future Past"/>
@@ -17254,7 +17711,7 @@
     <s v="Halle Berry"/>
     <s v="Jennifer Lawrence"/>
     <n v="200000000"/>
-    <n v="747900000"/>
+    <x v="442"/>
   </r>
   <r>
     <s v="You're Next"/>
@@ -17270,7 +17727,7 @@
     <s v="Nicholas Tucci"/>
     <s v="Barbara Crampton"/>
     <n v="1000000"/>
-    <n v="26800000"/>
+    <x v="443"/>
   </r>
   <r>
     <s v="Zero Dark Thirty"/>
@@ -17286,7 +17743,7 @@
     <s v="Kyle Chandler"/>
     <s v="Jason Clarke"/>
     <n v="40000000"/>
-    <n v="132800000.00000001"/>
+    <x v="444"/>
   </r>
   <r>
     <s v="Zhong Kui: Snow Girl and the Dark Crystal"/>
@@ -17302,7 +17759,7 @@
     <s v="Winston Chao"/>
     <s v="Bao Bei'er"/>
     <n v="30000000"/>
-    <n v="64470000"/>
+    <x v="445"/>
   </r>
   <r>
     <s v="Zoolander 2"/>
@@ -17318,14 +17775,14 @@
     <s v="Will Ferrell"/>
     <s v="Penélope Cruz"/>
     <n v="50000000"/>
-    <n v="56000000"/>
+    <x v="446"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{288B307E-74DC-482B-B13D-CC9059B04DF0}" name="PivotTable4" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A13:D19" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{288B307E-74DC-482B-B13D-CC9059B04DF0}" name="PivotTable4" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A13:D19" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" numFmtId="164" showAll="0">
@@ -17358,7 +17815,458 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField numFmtId="165" showAll="0"/>
-    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField axis="axisPage" dataField="1" numFmtId="165" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="448">
+        <item x="20"/>
+        <item x="377"/>
+        <item x="168"/>
+        <item x="123"/>
+        <item x="252"/>
+        <item x="422"/>
+        <item x="203"/>
+        <item x="155"/>
+        <item x="332"/>
+        <item x="393"/>
+        <item x="162"/>
+        <item x="137"/>
+        <item x="433"/>
+        <item x="53"/>
+        <item x="7"/>
+        <item x="152"/>
+        <item x="51"/>
+        <item x="265"/>
+        <item x="427"/>
+        <item x="35"/>
+        <item x="8"/>
+        <item x="202"/>
+        <item x="31"/>
+        <item x="232"/>
+        <item x="437"/>
+        <item x="190"/>
+        <item x="76"/>
+        <item x="386"/>
+        <item x="56"/>
+        <item x="396"/>
+        <item x="12"/>
+        <item x="410"/>
+        <item x="154"/>
+        <item x="148"/>
+        <item x="70"/>
+        <item x="58"/>
+        <item x="221"/>
+        <item x="321"/>
+        <item x="187"/>
+        <item x="387"/>
+        <item x="243"/>
+        <item h="1" x="381"/>
+        <item h="1" x="194"/>
+        <item h="1" x="325"/>
+        <item h="1" x="104"/>
+        <item h="1" x="107"/>
+        <item h="1" x="113"/>
+        <item h="1" x="13"/>
+        <item h="1" x="106"/>
+        <item h="1" x="234"/>
+        <item h="1" x="253"/>
+        <item h="1" x="61"/>
+        <item h="1" x="401"/>
+        <item h="1" x="424"/>
+        <item h="1" x="127"/>
+        <item h="1" x="41"/>
+        <item h="1" x="39"/>
+        <item h="1" x="356"/>
+        <item h="1" x="426"/>
+        <item h="1" x="394"/>
+        <item h="1" x="245"/>
+        <item h="1" x="36"/>
+        <item h="1" x="320"/>
+        <item h="1" x="240"/>
+        <item h="1" x="174"/>
+        <item h="1" x="74"/>
+        <item h="1" x="330"/>
+        <item h="1" x="210"/>
+        <item h="1" x="44"/>
+        <item h="1" x="368"/>
+        <item h="1" x="161"/>
+        <item h="1" x="105"/>
+        <item h="1" x="38"/>
+        <item h="1" x="15"/>
+        <item h="1" x="419"/>
+        <item h="1" x="117"/>
+        <item h="1" x="11"/>
+        <item h="1" x="344"/>
+        <item h="1" x="417"/>
+        <item h="1" x="305"/>
+        <item h="1" x="95"/>
+        <item h="1" x="414"/>
+        <item h="1" x="22"/>
+        <item h="1" x="72"/>
+        <item h="1" x="443"/>
+        <item h="1" x="26"/>
+        <item h="1" x="149"/>
+        <item h="1" x="166"/>
+        <item h="1" x="84"/>
+        <item h="1" x="42"/>
+        <item h="1" x="87"/>
+        <item h="1" x="388"/>
+        <item h="1" x="267"/>
+        <item h="1" x="434"/>
+        <item h="1" x="272"/>
+        <item h="1" x="404"/>
+        <item h="1" x="244"/>
+        <item h="1" x="103"/>
+        <item h="1" x="294"/>
+        <item h="1" x="175"/>
+        <item h="1" x="201"/>
+        <item h="1" x="99"/>
+        <item h="1" x="247"/>
+        <item h="1" x="112"/>
+        <item h="1" x="428"/>
+        <item h="1" x="292"/>
+        <item h="1" x="21"/>
+        <item h="1" x="375"/>
+        <item h="1" x="67"/>
+        <item h="1" x="157"/>
+        <item h="1" x="17"/>
+        <item h="1" x="14"/>
+        <item h="1" x="50"/>
+        <item h="1" x="79"/>
+        <item h="1" x="60"/>
+        <item h="1" x="338"/>
+        <item h="1" x="163"/>
+        <item h="1" x="362"/>
+        <item h="1" x="280"/>
+        <item h="1" x="54"/>
+        <item h="1" x="406"/>
+        <item h="1" x="304"/>
+        <item h="1" x="178"/>
+        <item h="1" x="257"/>
+        <item h="1" x="40"/>
+        <item h="1" x="429"/>
+        <item h="1" x="331"/>
+        <item h="1" x="199"/>
+        <item h="1" x="185"/>
+        <item h="1" x="46"/>
+        <item h="1" x="90"/>
+        <item h="1" x="59"/>
+        <item h="1" x="262"/>
+        <item h="1" x="91"/>
+        <item h="1" x="198"/>
+        <item h="1" x="303"/>
+        <item h="1" x="208"/>
+        <item h="1" x="94"/>
+        <item h="1" x="360"/>
+        <item h="1" x="230"/>
+        <item h="1" x="409"/>
+        <item h="1" x="420"/>
+        <item h="1" x="96"/>
+        <item h="1" x="65"/>
+        <item h="1" x="255"/>
+        <item h="1" x="182"/>
+        <item h="1" x="132"/>
+        <item h="1" x="278"/>
+        <item h="1" x="374"/>
+        <item h="1" x="436"/>
+        <item h="1" x="282"/>
+        <item h="1" x="337"/>
+        <item h="1" x="212"/>
+        <item h="1" x="211"/>
+        <item h="1" x="289"/>
+        <item h="1" x="33"/>
+        <item h="1" x="446"/>
+        <item h="1" x="83"/>
+        <item h="1" x="16"/>
+        <item h="1" x="339"/>
+        <item h="1" x="264"/>
+        <item h="1" x="10"/>
+        <item h="1" x="380"/>
+        <item h="1" x="403"/>
+        <item h="1" x="363"/>
+        <item h="1" x="165"/>
+        <item h="1" x="438"/>
+        <item h="1" x="49"/>
+        <item h="1" x="116"/>
+        <item h="1" x="349"/>
+        <item h="1" x="425"/>
+        <item h="1" x="315"/>
+        <item h="1" x="445"/>
+        <item h="1" x="136"/>
+        <item h="1" x="307"/>
+        <item h="1" x="317"/>
+        <item h="1" x="277"/>
+        <item h="1" x="273"/>
+        <item h="1" x="340"/>
+        <item h="1" x="156"/>
+        <item h="1" x="285"/>
+        <item h="1" x="197"/>
+        <item h="1" x="219"/>
+        <item h="1" x="318"/>
+        <item h="1" x="47"/>
+        <item h="1" x="1"/>
+        <item h="1" x="266"/>
+        <item h="1" x="399"/>
+        <item h="1" x="126"/>
+        <item h="1" x="191"/>
+        <item h="1" x="430"/>
+        <item h="1" x="98"/>
+        <item h="1" x="68"/>
+        <item h="1" x="80"/>
+        <item h="1" x="343"/>
+        <item h="1" x="281"/>
+        <item h="1" x="227"/>
+        <item h="1" x="250"/>
+        <item h="1" x="271"/>
+        <item h="1" x="383"/>
+        <item h="1" x="312"/>
+        <item h="1" x="141"/>
+        <item h="1" x="405"/>
+        <item h="1" x="128"/>
+        <item h="1" x="270"/>
+        <item h="1" x="359"/>
+        <item h="1" x="276"/>
+        <item h="1" x="225"/>
+        <item h="1" x="158"/>
+        <item h="1" x="223"/>
+        <item h="1" x="77"/>
+        <item h="1" x="287"/>
+        <item h="1" x="204"/>
+        <item h="1" x="384"/>
+        <item h="1" x="268"/>
+        <item h="1" x="373"/>
+        <item h="1" x="286"/>
+        <item h="1" x="358"/>
+        <item h="1" x="195"/>
+        <item h="1" x="392"/>
+        <item h="1" x="142"/>
+        <item h="1" x="241"/>
+        <item h="1" x="411"/>
+        <item h="1" x="6"/>
+        <item h="1" x="402"/>
+        <item h="1" x="366"/>
+        <item h="1" x="43"/>
+        <item h="1" x="258"/>
+        <item h="1" x="297"/>
+        <item h="1" x="160"/>
+        <item h="1" x="125"/>
+        <item h="1" x="326"/>
+        <item h="1" x="57"/>
+        <item h="1" x="248"/>
+        <item h="1" x="418"/>
+        <item h="1" x="220"/>
+        <item h="1" x="319"/>
+        <item h="1" x="283"/>
+        <item h="1" x="110"/>
+        <item h="1" x="385"/>
+        <item h="1" x="275"/>
+        <item h="1" x="228"/>
+        <item h="1" x="231"/>
+        <item h="1" x="131"/>
+        <item h="1" x="207"/>
+        <item h="1" x="0"/>
+        <item h="1" x="314"/>
+        <item h="1" x="367"/>
+        <item h="1" x="306"/>
+        <item h="1" x="111"/>
+        <item h="1" x="145"/>
+        <item h="1" x="274"/>
+        <item h="1" x="130"/>
+        <item h="1" x="236"/>
+        <item h="1" x="18"/>
+        <item h="1" x="432"/>
+        <item h="1" x="242"/>
+        <item h="1" x="229"/>
+        <item h="1" x="88"/>
+        <item h="1" x="376"/>
+        <item h="1" x="246"/>
+        <item h="1" x="382"/>
+        <item h="1" x="398"/>
+        <item h="1" x="32"/>
+        <item h="1" x="172"/>
+        <item h="1" x="412"/>
+        <item h="1" x="62"/>
+        <item h="1" x="45"/>
+        <item h="1" x="224"/>
+        <item h="1" x="408"/>
+        <item h="1" x="63"/>
+        <item h="1" x="2"/>
+        <item h="1" x="114"/>
+        <item h="1" x="444"/>
+        <item h="1" x="311"/>
+        <item h="1" x="239"/>
+        <item h="1" x="28"/>
+        <item h="1" x="151"/>
+        <item h="1" x="310"/>
+        <item h="1" x="170"/>
+        <item h="1" x="361"/>
+        <item h="1" x="226"/>
+        <item h="1" x="391"/>
+        <item h="1" x="118"/>
+        <item h="1" x="183"/>
+        <item h="1" x="254"/>
+        <item h="1" x="121"/>
+        <item h="1" x="259"/>
+        <item h="1" x="372"/>
+        <item h="1" x="346"/>
+        <item h="1" x="413"/>
+        <item h="1" x="218"/>
+        <item h="1" x="147"/>
+        <item h="1" x="102"/>
+        <item h="1" x="144"/>
+        <item h="1" x="423"/>
+        <item h="1" x="353"/>
+        <item h="1" x="48"/>
+        <item h="1" x="100"/>
+        <item h="1" x="89"/>
+        <item h="1" x="66"/>
+        <item h="1" x="140"/>
+        <item h="1" x="341"/>
+        <item h="1" x="177"/>
+        <item h="1" x="316"/>
+        <item h="1" x="328"/>
+        <item h="1" x="327"/>
+        <item h="1" x="355"/>
+        <item h="1" x="192"/>
+        <item h="1" x="333"/>
+        <item h="1" x="357"/>
+        <item h="1" x="176"/>
+        <item h="1" x="188"/>
+        <item h="1" x="290"/>
+        <item h="1" x="378"/>
+        <item h="1" x="416"/>
+        <item h="1" x="3"/>
+        <item h="1" x="293"/>
+        <item h="1" x="235"/>
+        <item h="1" x="205"/>
+        <item h="1" x="435"/>
+        <item h="1" x="335"/>
+        <item h="1" x="269"/>
+        <item h="1" x="108"/>
+        <item h="1" x="55"/>
+        <item h="1" x="299"/>
+        <item h="1" x="86"/>
+        <item h="1" x="115"/>
+        <item h="1" x="150"/>
+        <item h="1" x="214"/>
+        <item h="1" x="124"/>
+        <item h="1" x="347"/>
+        <item h="1" x="30"/>
+        <item h="1" x="354"/>
+        <item h="1" x="23"/>
+        <item h="1" x="24"/>
+        <item h="1" x="288"/>
+        <item h="1" x="279"/>
+        <item h="1" x="256"/>
+        <item h="1" x="69"/>
+        <item h="1" x="301"/>
+        <item h="1" x="263"/>
+        <item h="1" x="291"/>
+        <item h="1" x="19"/>
+        <item h="1" x="238"/>
+        <item h="1" x="71"/>
+        <item h="1" x="379"/>
+        <item h="1" x="122"/>
+        <item h="1" x="27"/>
+        <item h="1" x="97"/>
+        <item h="1" x="206"/>
+        <item h="1" x="64"/>
+        <item h="1" x="173"/>
+        <item h="1" x="200"/>
+        <item h="1" x="313"/>
+        <item h="1" x="421"/>
+        <item h="1" x="93"/>
+        <item h="1" x="217"/>
+        <item h="1" x="237"/>
+        <item h="1" x="81"/>
+        <item h="1" x="329"/>
+        <item h="1" x="37"/>
+        <item h="1" x="9"/>
+        <item h="1" x="440"/>
+        <item h="1" x="334"/>
+        <item h="1" x="261"/>
+        <item h="1" x="336"/>
+        <item h="1" x="186"/>
+        <item h="1" x="322"/>
+        <item h="1" x="323"/>
+        <item h="1" x="216"/>
+        <item h="1" x="397"/>
+        <item h="1" x="4"/>
+        <item h="1" x="159"/>
+        <item h="1" x="5"/>
+        <item h="1" x="309"/>
+        <item h="1" x="395"/>
+        <item h="1" x="153"/>
+        <item h="1" x="370"/>
+        <item h="1" x="85"/>
+        <item h="1" x="342"/>
+        <item h="1" x="215"/>
+        <item h="1" x="364"/>
+        <item h="1" x="415"/>
+        <item h="1" x="133"/>
+        <item h="1" x="345"/>
+        <item h="1" x="213"/>
+        <item h="1" x="209"/>
+        <item h="1" x="138"/>
+        <item h="1" x="120"/>
+        <item h="1" x="92"/>
+        <item h="1" x="233"/>
+        <item h="1" x="109"/>
+        <item h="1" x="296"/>
+        <item h="1" x="180"/>
+        <item h="1" x="143"/>
+        <item h="1" x="196"/>
+        <item h="1" x="129"/>
+        <item h="1" x="251"/>
+        <item h="1" x="284"/>
+        <item h="1" x="249"/>
+        <item h="1" x="222"/>
+        <item h="1" x="164"/>
+        <item h="1" x="407"/>
+        <item h="1" x="82"/>
+        <item h="1" x="431"/>
+        <item h="1" x="302"/>
+        <item h="1" x="169"/>
+        <item h="1" x="179"/>
+        <item h="1" x="365"/>
+        <item h="1" x="134"/>
+        <item h="1" x="300"/>
+        <item h="1" x="260"/>
+        <item h="1" x="29"/>
+        <item h="1" x="167"/>
+        <item h="1" x="119"/>
+        <item h="1" x="389"/>
+        <item h="1" x="439"/>
+        <item h="1" x="441"/>
+        <item h="1" x="25"/>
+        <item h="1" x="298"/>
+        <item h="1" x="371"/>
+        <item h="1" x="324"/>
+        <item h="1" x="171"/>
+        <item h="1" x="135"/>
+        <item h="1" x="189"/>
+        <item h="1" x="369"/>
+        <item h="1" x="295"/>
+        <item h="1" x="352"/>
+        <item h="1" x="184"/>
+        <item h="1" x="146"/>
+        <item h="1" x="193"/>
+        <item h="1" x="350"/>
+        <item h="1" x="73"/>
+        <item h="1" x="52"/>
+        <item h="1" x="390"/>
+        <item h="1" x="181"/>
+        <item h="1" x="442"/>
+        <item h="1" x="351"/>
+        <item h="1" x="308"/>
+        <item h="1" x="75"/>
+        <item h="1" x="101"/>
+        <item h="1" x="400"/>
+        <item h="1" x="34"/>
+        <item h="1" x="139"/>
+        <item h="1" x="348"/>
+        <item h="1" x="78"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField axis="axisRow" showAll="0">
       <items count="7">
         <item sd="0" x="0"/>
@@ -17422,13 +18330,16 @@
       <x v="2"/>
     </i>
   </colItems>
+  <pageFields count="1">
+    <pageField fld="13" hier="-1"/>
+  </pageFields>
   <dataFields count="3">
     <dataField name="Sum &lt; $10M" fld="13" baseField="0" baseItem="0" numFmtId="44"/>
     <dataField name="Average &lt; $10M" fld="13" subtotal="average" baseField="15" baseItem="2"/>
     <dataField name="Count &lt; $10M" fld="13" subtotal="count" baseField="15" baseItem="2"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="3">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -17445,7 +18356,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5643AB21-A11F-411C-BD6E-BF9D63A697E5}" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5643AB21-A11F-411C-BD6E-BF9D63A697E5}" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField showAll="0"/>
@@ -17549,7 +18460,7 @@
     <dataField name="Count of Box Office Revenue ($)2" fld="13" subtotal="count" baseField="15" baseItem="2"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="12">
+    <format dxfId="14">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -17865,15 +18776,15 @@
   <dimension ref="A3:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -17974,17 +18885,25 @@
         <v>508</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2854</v>
+      </c>
+    </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
         <v>2841</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" t="s">
         <v>2851</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" t="s">
         <v>2852</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" t="s">
         <v>2853</v>
       </c>
     </row>
@@ -17993,13 +18912,13 @@
         <v>2844</v>
       </c>
       <c r="B14" s="23">
-        <v>18078040000</v>
+        <v>67940000</v>
       </c>
       <c r="C14" s="23">
-        <v>170547547.16981131</v>
+        <v>6794000</v>
       </c>
       <c r="D14" s="23">
-        <v>106</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -18007,13 +18926,13 @@
         <v>2845</v>
       </c>
       <c r="B15" s="23">
-        <v>13672800000</v>
+        <v>26400000</v>
       </c>
       <c r="C15" s="23">
-        <v>160856470.58823529</v>
+        <v>3300000</v>
       </c>
       <c r="D15" s="23">
-        <v>85</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -18021,13 +18940,13 @@
         <v>2846</v>
       </c>
       <c r="B16" s="23">
-        <v>20013420000</v>
+        <v>46920000</v>
       </c>
       <c r="C16" s="23">
-        <v>168180000</v>
+        <v>4265454.5454545459</v>
       </c>
       <c r="D16" s="23">
-        <v>119</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -18035,13 +18954,13 @@
         <v>2847</v>
       </c>
       <c r="B17" s="23">
-        <v>13521310000</v>
+        <v>93040000</v>
       </c>
       <c r="C17" s="23">
-        <v>109042822.58064516</v>
+        <v>4652000</v>
       </c>
       <c r="D17" s="23">
-        <v>124</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -18049,13 +18968,13 @@
         <v>2848</v>
       </c>
       <c r="B18" s="23">
-        <v>11921900000</v>
+        <v>41100000</v>
       </c>
       <c r="C18" s="23">
-        <v>161106756.75675675</v>
+        <v>5137500</v>
       </c>
       <c r="D18" s="23">
-        <v>74</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -18063,13 +18982,13 @@
         <v>2842</v>
       </c>
       <c r="B19" s="23">
-        <v>77207470000</v>
+        <v>275400000</v>
       </c>
       <c r="C19" s="23">
-        <v>151983208.66141734</v>
+        <v>4831578.9473684207</v>
       </c>
       <c r="D19" s="23">
-        <v>508</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Movie_Data_Starter_Project.xlsx
+++ b/Movie_Data_Starter_Project.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Projects\Data_Analysis_Portfolio\working_with_pivot_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D1A434-AB5A-44F8-9CCB-D2943C80BB91}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D3E1E2-5A76-4D02-A40F-3E5BF9D0F815}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,13 +21,13 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId6"/>
+    <pivotCache cacheId="31" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6550" uniqueCount="2855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6552" uniqueCount="2857">
   <si>
     <t>Movie Title</t>
   </si>
@@ -8592,6 +8592,12 @@
   </si>
   <si>
     <t>(Multiple Items)</t>
+  </si>
+  <si>
+    <t>Calc Field</t>
+  </si>
+  <si>
+    <t>Calc Field 1</t>
   </si>
 </sst>
 </file>
@@ -8706,22 +8712,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
@@ -8766,11 +8757,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="HP" refreshedDate="45563.283721643522" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="508" xr:uid="{A8783DE5-6482-414C-806B-6CFBA141E9D9}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="HP" refreshedDate="45563.348874421295" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="508" xr:uid="{A8783DE5-6482-414C-806B-6CFBA141E9D9}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:N509" sheet="Movie Data"/>
   </cacheSource>
-  <cacheFields count="16">
+  <cacheFields count="18">
     <cacheField name="Movie Title" numFmtId="0">
       <sharedItems/>
     </cacheField>
@@ -9638,6 +9629,8 @@
         </groupItems>
       </fieldGroup>
     </cacheField>
+    <cacheField name="Calculated Field 1" numFmtId="0" formula=" SUM('Box Office Revenue ($)')/ COUNT('Box Office Revenue ($)')" databaseField="0"/>
+    <cacheField name="Calculated Field 2" numFmtId="0" formula=" SUM('Box Office Revenue ($)' )/ COUNT('Box Office Revenue ($)' )" databaseField="0"/>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -17781,9 +17774,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{288B307E-74DC-482B-B13D-CC9059B04DF0}" name="PivotTable4" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A13:D19" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="16">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{288B307E-74DC-482B-B13D-CC9059B04DF0}" name="PivotTable4" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A13:E19" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="18">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" numFmtId="164" showAll="0">
       <items count="15">
@@ -18290,6 +18283,8 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="3">
     <field x="15"/>
@@ -18319,7 +18314,7 @@
   <colFields count="1">
     <field x="-2"/>
   </colFields>
-  <colItems count="3">
+  <colItems count="4">
     <i>
       <x/>
     </i>
@@ -18329,17 +18324,21 @@
     <i i="2">
       <x v="2"/>
     </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
   </colItems>
   <pageFields count="1">
     <pageField fld="13" hier="-1"/>
   </pageFields>
-  <dataFields count="3">
+  <dataFields count="4">
     <dataField name="Sum &lt; $10M" fld="13" baseField="0" baseItem="0" numFmtId="44"/>
     <dataField name="Average &lt; $10M" fld="13" subtotal="average" baseField="15" baseItem="2"/>
     <dataField name="Count &lt; $10M" fld="13" subtotal="count" baseField="15" baseItem="2"/>
+    <dataField name="Calc Field" fld="16" baseField="15" baseItem="3" numFmtId="165"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="1">
+    <format dxfId="8">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -18356,9 +18355,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5643AB21-A11F-411C-BD6E-BF9D63A697E5}" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:D9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="16">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5643AB21-A11F-411C-BD6E-BF9D63A697E5}" name="PivotTable2" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:E9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="18">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" numFmtId="164" showAll="0">
       <items count="15">
@@ -18414,6 +18413,8 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="3">
     <field x="15"/>
@@ -18443,7 +18444,7 @@
   <colFields count="1">
     <field x="-2"/>
   </colFields>
-  <colItems count="3">
+  <colItems count="4">
     <i>
       <x/>
     </i>
@@ -18453,14 +18454,18 @@
     <i i="2">
       <x v="2"/>
     </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
   </colItems>
-  <dataFields count="3">
+  <dataFields count="4">
     <dataField name="Sum of Box Office Revenue ($)" fld="13" baseField="0" baseItem="0" numFmtId="44"/>
     <dataField name="Average of Box Office Revenue ($)2" fld="13" subtotal="average" baseField="15" baseItem="2"/>
     <dataField name="Count of Box Office Revenue ($)2" fld="13" subtotal="count" baseField="15" baseItem="2"/>
+    <dataField name="Calc Field 1" fld="17" baseField="15" baseItem="1" numFmtId="165"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="14">
+    <format dxfId="9">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -18773,21 +18778,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3440AAC9-58BB-477C-9CF6-706878CD55F6}">
-  <dimension ref="A3:D19"/>
+  <dimension ref="A3:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="23" width="14" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="15" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
+    <col min="28" max="33" width="14" bestFit="1" customWidth="1"/>
+    <col min="34" max="36" width="15" bestFit="1" customWidth="1"/>
+    <col min="37" max="42" width="14" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="44" max="83" width="14" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="85" max="124" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="125" max="146" width="14" bestFit="1" customWidth="1"/>
+    <col min="147" max="148" width="15" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="14" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="15" bestFit="1" customWidth="1"/>
+    <col min="151" max="156" width="14" bestFit="1" customWidth="1"/>
+    <col min="157" max="159" width="15" bestFit="1" customWidth="1"/>
+    <col min="160" max="165" width="14" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>2841</v>
       </c>
@@ -18800,8 +18829,11 @@
       <c r="D3" t="s">
         <v>2850</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
         <v>2844</v>
       </c>
@@ -18814,8 +18846,11 @@
       <c r="D4" s="23">
         <v>106</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" s="23">
+        <v>18078040000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
         <v>2845</v>
       </c>
@@ -18828,8 +18863,11 @@
       <c r="D5" s="23">
         <v>85</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" s="23">
+        <v>13672800000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
         <v>2846</v>
       </c>
@@ -18842,8 +18880,11 @@
       <c r="D6" s="23">
         <v>119</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" s="23">
+        <v>20013420000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
         <v>2847</v>
       </c>
@@ -18856,8 +18897,11 @@
       <c r="D7" s="23">
         <v>124</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" s="23">
+        <v>13521310000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
         <v>2848</v>
       </c>
@@ -18870,8 +18914,11 @@
       <c r="D8" s="23">
         <v>74</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" s="23">
+        <v>11921900000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
         <v>2842</v>
       </c>
@@ -18884,8 +18931,11 @@
       <c r="D9" s="23">
         <v>508</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" s="23">
+        <v>77207470000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
         <v>13</v>
       </c>
@@ -18893,7 +18943,7 @@
         <v>2854</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
         <v>2841</v>
       </c>
@@ -18906,8 +18956,11 @@
       <c r="D13" t="s">
         <v>2853</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
         <v>2844</v>
       </c>
@@ -18920,8 +18973,11 @@
       <c r="D14" s="23">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" s="23">
+        <v>67940000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
         <v>2845</v>
       </c>
@@ -18934,8 +18990,11 @@
       <c r="D15" s="23">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" s="23">
+        <v>26400000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
         <v>2846</v>
       </c>
@@ -18948,8 +19007,11 @@
       <c r="D16" s="23">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" s="23">
+        <v>46920000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
         <v>2847</v>
       </c>
@@ -18962,8 +19024,11 @@
       <c r="D17" s="23">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" s="23">
+        <v>93040000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
         <v>2848</v>
       </c>
@@ -18976,8 +19041,11 @@
       <c r="D18" s="23">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" s="23">
+        <v>41100000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="22" t="s">
         <v>2842</v>
       </c>
@@ -18989,6 +19057,9 @@
       </c>
       <c r="D19" s="23">
         <v>57</v>
+      </c>
+      <c r="E19" s="23">
+        <v>275400000</v>
       </c>
     </row>
   </sheetData>

--- a/Movie_Data_Starter_Project.xlsx
+++ b/Movie_Data_Starter_Project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Projects\Data_Analysis_Portfolio\working_with_pivot_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D3E1E2-5A76-4D02-A40F-3E5BF9D0F815}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CDA84B-08C8-4AC5-AE67-F93F27C214FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Directors" sheetId="3" r:id="rId4"/>
     <sheet name="Actors" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="31" r:id="rId6"/>
   </pivotCaches>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6552" uniqueCount="2857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6553" uniqueCount="2858">
   <si>
     <t>Movie Title</t>
   </si>
@@ -8598,6 +8598,9 @@
   </si>
   <si>
     <t>Calc Field 1</t>
+  </si>
+  <si>
+    <t>Percent of total movies</t>
   </si>
 </sst>
 </file>
@@ -8609,7 +8612,7 @@
     <numFmt numFmtId="164" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -8633,6 +8636,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -8658,10 +8668,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -8708,9 +8719,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -18778,10 +18793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3440AAC9-58BB-477C-9CF6-706878CD55F6}">
-  <dimension ref="A3:E19"/>
+  <dimension ref="A3:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18792,7 +18807,8 @@
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="23" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="23" width="14" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="15" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="14" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
@@ -18816,7 +18832,7 @@
     <col min="169" max="169" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>2841</v>
       </c>
@@ -18833,7 +18849,7 @@
         <v>2856</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
         <v>2844</v>
       </c>
@@ -18850,7 +18866,7 @@
         <v>18078040000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
         <v>2845</v>
       </c>
@@ -18867,7 +18883,7 @@
         <v>13672800000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
         <v>2846</v>
       </c>
@@ -18884,7 +18900,7 @@
         <v>20013420000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
         <v>2847</v>
       </c>
@@ -18901,7 +18917,7 @@
         <v>13521310000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
         <v>2848</v>
       </c>
@@ -18918,7 +18934,7 @@
         <v>11921900000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
         <v>2842</v>
       </c>
@@ -18935,7 +18951,7 @@
         <v>77207470000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
         <v>13</v>
       </c>
@@ -18943,7 +18959,7 @@
         <v>2854</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
         <v>2841</v>
       </c>
@@ -18959,8 +18975,11 @@
       <c r="E13" t="s">
         <v>2855</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G13" s="24" t="s">
+        <v>2857</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
         <v>2844</v>
       </c>
@@ -18976,8 +18995,12 @@
       <c r="E14" s="23">
         <v>67940000</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G14" s="26">
+        <f>D14/D4</f>
+        <v>9.4339622641509441E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
         <v>2845</v>
       </c>
@@ -18993,8 +19016,12 @@
       <c r="E15" s="23">
         <v>26400000</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G15" s="26">
+        <f t="shared" ref="G15:G19" si="0">D15/D5</f>
+        <v>9.4117647058823528E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
         <v>2846</v>
       </c>
@@ -19010,8 +19037,12 @@
       <c r="E16" s="23">
         <v>46920000</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G16" s="26">
+        <f t="shared" si="0"/>
+        <v>9.2436974789915971E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
         <v>2847</v>
       </c>
@@ -19027,8 +19058,12 @@
       <c r="E17" s="23">
         <v>93040000</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G17" s="26">
+        <f t="shared" si="0"/>
+        <v>0.16129032258064516</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
         <v>2848</v>
       </c>
@@ -19044,8 +19079,12 @@
       <c r="E18" s="23">
         <v>41100000</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G18" s="26">
+        <f t="shared" si="0"/>
+        <v>0.10810810810810811</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="22" t="s">
         <v>2842</v>
       </c>
@@ -19061,6 +19100,7 @@
       <c r="E19" s="23">
         <v>275400000</v>
       </c>
+      <c r="G19" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
